--- a/files/HeatingCurveGraph.xlsx
+++ b/files/HeatingCurveGraph.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/322f8d75bd36db00/Räägu 17a/Home IoT/Smart energy price for Shelly/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9B855E9-B6F4-4BE5-BE0F-7BC5CB42E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{B9B855E9-B6F4-4BE5-BE0F-7BC5CB42E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8B3C182-2BB9-4DE1-A9FA-A31A195EFAF2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{E44A6528-8152-4E24-BDB0-FDF95A825279}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="heating curve" sheetId="1" r:id="rId1"/>
+    <sheet name="heating window" sheetId="2" r:id="rId2"/>
+    <sheet name="smart heating" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Temperatuur</t>
   </si>
@@ -60,6 +62,18 @@
   </si>
   <si>
     <t>Starting temp</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Energy price</t>
+  </si>
+  <si>
+    <t>Hour</t>
   </si>
 </sst>
 </file>
@@ -103,7 +117,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -217,7 +249,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>'heating curve'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -240,7 +272,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$39</c:f>
+              <c:f>'heating curve'!$B$4:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -357,7 +389,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$39</c:f>
+              <c:f>'heating curve'!$C$4:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="36"/>
@@ -484,7 +516,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
+              <c:f>'heating curve'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -507,7 +539,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$39</c:f>
+              <c:f>'heating curve'!$B$4:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -624,7 +656,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$39</c:f>
+              <c:f>'heating curve'!$D$4:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="36"/>
@@ -751,7 +783,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
+              <c:f>'heating curve'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -774,7 +806,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$39</c:f>
+              <c:f>'heating curve'!$B$4:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -891,7 +923,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$39</c:f>
+              <c:f>'heating curve'!$E$4:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="36"/>
@@ -1018,7 +1050,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$3</c:f>
+              <c:f>'heating curve'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1041,7 +1073,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$39</c:f>
+              <c:f>'heating curve'!$B$4:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -1158,7 +1190,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$39</c:f>
+              <c:f>'heating curve'!$F$4:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="36"/>
@@ -1285,7 +1317,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$3</c:f>
+              <c:f>'heating curve'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1308,7 +1340,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$39</c:f>
+              <c:f>'heating curve'!$B$4:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -1425,7 +1457,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$39</c:f>
+              <c:f>'heating curve'!$G$4:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="36"/>
@@ -1881,7 +1913,1909 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="et-EE" sz="1800"/>
+              <a:t>Day divided into 6 heating windows</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="et-EE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'heating window'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Energy price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'heating window'!$C$6:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'heating window'!$D$6:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0AB-46CB-8FC9-972FF92B7567}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'heating window'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'heating window'!$C$6:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'heating window'!$E$6:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C0AB-46CB-8FC9-972FF92B7567}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'heating window'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'heating window'!$C$6:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'heating window'!$F$6:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C0AB-46CB-8FC9-972FF92B7567}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'heating window'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'heating window'!$C$6:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'heating window'!$G$6:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C0AB-46CB-8FC9-972FF92B7567}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'heating window'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'heating window'!$C$6:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'heating window'!$H$6:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="16">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C0AB-46CB-8FC9-972FF92B7567}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'heating window'!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'heating window'!$C$6:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'heating window'!$I$6:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="20">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C0AB-46CB-8FC9-972FF92B7567}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1002483328"/>
+        <c:axId val="1002485408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1002483328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="et-EE" sz="1800"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="et-EE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="et-EE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002485408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1002485408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="et-EE" sz="1800"/>
+                  <a:t>Energy price</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="et-EE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="et-EE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002483328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="et-EE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="et-EE" sz="1800"/>
+              <a:t>Heating is based on weather forecast</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="et-EE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'smart heating'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Energy price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'smart heating'!$C$6:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'smart heating'!$D$6:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8363-483C-8936-B3E48BD4CFDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'smart heating'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'smart heating'!$C$6:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'smart heating'!$E$6:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8363-483C-8936-B3E48BD4CFDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1002483328"/>
+        <c:axId val="1002485408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1002483328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="et-EE" sz="1800"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="et-EE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="et-EE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002485408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1002485408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="et-EE" sz="1800"/>
+                  <a:t>Energy price</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="et-EE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="et-EE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002483328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="et-EE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2084,6 +4018,1012 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2524,26 +5464,219 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E076D24-93D0-4676-A938-069963832212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB45D94-5698-4B48-92EF-507ABD08B1F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892181A3-76A5-D6AB-028A-0C9B0256016C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6794500" y="3581400"/>
+          <a:ext cx="3905250" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="et-EE" sz="1800"/>
+            <a:t>Temperature -6'C and heatingCurve = 8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="et-EE" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="et-EE" sz="1800"/>
+            <a:t>Calculated heating time is 9 cheapest hours from the day.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CD291F1-B273-484B-9439-B56A0AF94F29}" name="Table1" displayName="Table1" ref="B3:G39" totalsRowShown="0">
   <autoFilter ref="B3:G39" xr:uid="{6CD291F1-B273-484B-9439-B56A0AF94F29}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{13AB0DD6-A6AE-4186-B573-B98CFC04765D}" name="Temperatuur"/>
-    <tableColumn id="2" xr3:uid="{0F3F1B0E-C66B-4921-9959-D32D46EA27F5}" name="0" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{0F3F1B0E-C66B-4921-9959-D32D46EA27F5}" name="0" dataDxfId="10">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(C$3/$C$1))/100&gt;24,24,(($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(C$3/$C$1))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D83EFAC5-E51D-436F-A9A2-51A2CB525FD7}" name="2" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{D83EFAC5-E51D-436F-A9A2-51A2CB525FD7}" name="2" dataDxfId="9">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(D$3/$C$1))/100&gt;24,24,(($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(D$3/$C$1))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BC85BFEA-5AF5-407F-ACAE-6527A9D24F10}" name="4" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{BC85BFEA-5AF5-407F-ACAE-6527A9D24F10}" name="4" dataDxfId="8">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(E$3/$C$1))/100&gt;24,24,(($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(E$3/$C$1))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{40D5E6C9-DFB7-4828-B405-CDEE1EB1E2D0}" name="6" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{40D5E6C9-DFB7-4828-B405-CDEE1EB1E2D0}" name="6" dataDxfId="7">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(F$3/$C$1))/100&gt;24,24,(($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(F$3/$C$1))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9F980170-A149-4FD7-8F6B-8E37F271A6C0}" name="8" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{9F980170-A149-4FD7-8F6B-8E37F271A6C0}" name="8" dataDxfId="6">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(G$3/$C$1))/100&gt;24,24,(($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(G$3/$C$1))/100)</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{786A2FE9-031F-4391-B9D3-B1D342659540}" name="Table13" displayName="Table13" ref="C5:I29" totalsRowShown="0">
+  <autoFilter ref="C5:I29" xr:uid="{ED9408A7-D79A-4D04-B215-DB5D059DBE7E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3B10AF68-AC1F-4874-9651-C0DFD1A59184}" name="Hour"/>
+    <tableColumn id="3" xr3:uid="{FD865039-C3F5-4FE9-B560-E1543C060AAC}" name="Energy price"/>
+    <tableColumn id="4" xr3:uid="{BD5533B0-A61C-4AC8-9C45-20095FBF7486}" name="2" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{EA176B3A-735E-4253-8EDA-2856ECD9E9E8}" name="3" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{6A3E2CCC-4E9B-4FD1-ADC2-58544F9911A8}" name="4" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{EDBA40F9-632A-4948-9EF1-8F51E8F78182}" name="5" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{FE76B63B-F82F-4912-803A-EFD617B54C27}" name="6" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FC1DBD23-9E85-491C-A196-903D33DA4023}" name="Table134" displayName="Table134" ref="C5:E29" totalsRowShown="0">
+  <autoFilter ref="C5:E29" xr:uid="{ED9408A7-D79A-4D04-B215-DB5D059DBE7E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{50207E7B-91C6-4BB9-83A3-D13240EF0D1C}" name="Hour"/>
+    <tableColumn id="3" xr3:uid="{0B03D944-737C-481C-93B9-B87F8FFD1802}" name="Energy price"/>
+    <tableColumn id="4" xr3:uid="{1443F733-B77B-485F-81CF-6314AA8458BA}" name="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3803,6 +6936,468 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09DDC9F-7735-4EE3-819B-0BBD93AF3A1F}">
+  <dimension ref="C5:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="H23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="I27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="I29">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8128E599-3232-41C3-A337-814FADC298B1}">
+  <dimension ref="C5:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>

--- a/files/HeatingCurveGraph.xlsx
+++ b/files/HeatingCurveGraph.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/322f8d75bd36db00/Räägu 17a/Home IoT/Smart energy price for Shelly/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{B9B855E9-B6F4-4BE5-BE0F-7BC5CB42E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8B3C182-2BB9-4DE1-A9FA-A31A195EFAF2}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="8_{B9B855E9-B6F4-4BE5-BE0F-7BC5CB42E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B581A09C-4BF4-400B-A2D2-8D1E8F1791EF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{E44A6528-8152-4E24-BDB0-FDF95A825279}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E44A6528-8152-4E24-BDB0-FDF95A825279}"/>
   </bookViews>
   <sheets>
-    <sheet name="heating curve" sheetId="1" r:id="rId1"/>
+    <sheet name="heating time" sheetId="4" r:id="rId1"/>
     <sheet name="heating window" sheetId="2" r:id="rId2"/>
     <sheet name="smart heating" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>Temperatuur</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>2</t>
   </si>
@@ -53,9 +50,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>Power factor</t>
@@ -75,12 +69,39 @@
   <si>
     <t>Hour</t>
   </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,16 +110,42 @@
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,18 +153,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -135,21 +252,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,7 +305,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="et-EE" baseline="0"/>
-              <a:t> time curve</a:t>
+              <a:t> time vs outside temperature</a:t>
             </a:r>
             <a:endParaRPr lang="et-EE"/>
           </a:p>
@@ -234,7 +336,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="et-EE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -249,11 +351,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating curve'!$C$3</c:f>
+              <c:f>'heating time'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -272,116 +374,146 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating curve'!$B$4:$B$39</c:f>
+              <c:f>'heating time'!$B$4:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="18">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>-3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>-4</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>-5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
                   <c:v>-6</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
                   <c:v>-7</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="28">
                   <c:v>-8</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="29">
                   <c:v>-9</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
                   <c:v>-10</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="31">
                   <c:v>-11</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="32">
                   <c:v>-12</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="33">
                   <c:v>-13</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="34">
                   <c:v>-14</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="35">
                   <c:v>-15</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="36">
                   <c:v>-16</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="37">
                   <c:v>-17</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="38">
                   <c:v>-18</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="39">
                   <c:v>-19</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="40">
                   <c:v>-20</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="41">
                   <c:v>-21</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="42">
                   <c:v>-22</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="43">
                   <c:v>-23</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="44">
                   <c:v>-24</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="45">
                   <c:v>-25</c:v>
                 </c:pt>
               </c:numCache>
@@ -389,117 +521,147 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating curve'!$C$4:$C$39</c:f>
+              <c:f>'heating time'!$C$4:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.09</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.69</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.96</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.56</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.89</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.24</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.61</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.41</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.84</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.29</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.76</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.76</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.84</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.41</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10.24</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10.89</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11.56</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.25</c:v>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,7 +669,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC4F-4E7D-B591-E044E31BB1F5}"/>
+              <c16:uniqueId val="{00000000-F469-4002-B6DF-7AF1A6311399}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -516,11 +678,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating curve'!$D$3</c:f>
+              <c:f>'heating time'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -539,116 +701,146 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating curve'!$B$4:$B$39</c:f>
+              <c:f>'heating time'!$B$4:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="18">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>-3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>-4</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>-5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
                   <c:v>-6</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
                   <c:v>-7</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="28">
                   <c:v>-8</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="29">
                   <c:v>-9</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
                   <c:v>-10</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="31">
                   <c:v>-11</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="32">
                   <c:v>-12</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="33">
                   <c:v>-13</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="34">
                   <c:v>-14</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="35">
                   <c:v>-15</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="36">
                   <c:v>-16</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="37">
                   <c:v>-17</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="38">
                   <c:v>-18</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="39">
                   <c:v>-19</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="40">
                   <c:v>-20</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="41">
                   <c:v>-21</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="42">
                   <c:v>-22</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="43">
                   <c:v>-23</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="44">
                   <c:v>-24</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="45">
                   <c:v>-25</c:v>
                 </c:pt>
               </c:numCache>
@@ -656,117 +848,147 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating curve'!$D$4:$D$39</c:f>
+              <c:f>'heating time'!$D$4:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.71</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.31</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.99</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.36</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.59</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.04</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.51</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.51</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.04</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.59</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.16</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.36</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.99</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10.64</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11.31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.71</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13.44</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>14.19</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14.96</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>15.75</c:v>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,7 +996,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC4F-4E7D-B591-E044E31BB1F5}"/>
+              <c16:uniqueId val="{00000001-F469-4002-B6DF-7AF1A6311399}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -783,11 +1005,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating curve'!$E$3</c:f>
+              <c:f>'heating time'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -806,116 +1028,146 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating curve'!$B$4:$B$39</c:f>
+              <c:f>'heating time'!$B$4:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="18">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>-3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>-4</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>-5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
                   <c:v>-6</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
                   <c:v>-7</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="28">
                   <c:v>-8</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="29">
                   <c:v>-9</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
                   <c:v>-10</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="31">
                   <c:v>-11</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="32">
                   <c:v>-12</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="33">
                   <c:v>-13</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="34">
                   <c:v>-14</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="35">
                   <c:v>-15</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="36">
                   <c:v>-16</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="37">
                   <c:v>-17</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="38">
                   <c:v>-18</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="39">
                   <c:v>-19</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="40">
                   <c:v>-20</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="41">
                   <c:v>-21</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="42">
                   <c:v>-22</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="43">
                   <c:v>-23</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="44">
                   <c:v>-24</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="45">
                   <c:v>-25</c:v>
                 </c:pt>
               </c:numCache>
@@ -923,117 +1175,147 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating curve'!$E$4:$E$39</c:f>
+              <c:f>'heating time'!$E$4:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.89</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2400000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.61</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.41</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.84</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.76</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.29</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.84</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.41</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.61</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.89</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.56</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11.96</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12.69</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13.44</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14.21</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15.81</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16.64</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>17.489999999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>18.36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>19.25</c:v>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,7 +1323,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC4F-4E7D-B591-E044E31BB1F5}"/>
+              <c16:uniqueId val="{00000002-F469-4002-B6DF-7AF1A6311399}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1050,11 +1332,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating curve'!$F$3</c:f>
+              <c:f>'heating time'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1073,116 +1355,146 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating curve'!$B$4:$B$39</c:f>
+              <c:f>'heating time'!$B$4:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="18">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>-3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>-4</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>-5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
                   <c:v>-6</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
                   <c:v>-7</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="28">
                   <c:v>-8</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="29">
                   <c:v>-9</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
                   <c:v>-10</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="31">
                   <c:v>-11</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="32">
                   <c:v>-12</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="33">
                   <c:v>-13</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="34">
                   <c:v>-14</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="35">
                   <c:v>-15</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="36">
                   <c:v>-16</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="37">
                   <c:v>-17</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="38">
                   <c:v>-18</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="39">
                   <c:v>-19</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="40">
                   <c:v>-20</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="41">
                   <c:v>-21</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="42">
                   <c:v>-22</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="43">
                   <c:v>-23</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="44">
                   <c:v>-24</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="45">
                   <c:v>-25</c:v>
                 </c:pt>
               </c:numCache>
@@ -1190,117 +1502,147 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating curve'!$F$4:$F$39</c:f>
+              <c:f>'heating time'!$F$4:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.36</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.59</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.51</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.04</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.59</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.36</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.99</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.64</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.31</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>10.71</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.44</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12.19</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12.96</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13.75</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14.56</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.39</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>16.239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>17.11</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>18.91</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>19.84</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20.79</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21.76</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>22.75</c:v>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,7 +1650,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EC4F-4E7D-B591-E044E31BB1F5}"/>
+              <c16:uniqueId val="{00000003-F469-4002-B6DF-7AF1A6311399}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1317,11 +1659,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating curve'!$G$3</c:f>
+              <c:f>'heating time'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1340,116 +1682,146 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating curve'!$B$4:$B$39</c:f>
+              <c:f>'heating time'!$B$4:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="18">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>-3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>-4</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>-5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
                   <c:v>-6</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
                   <c:v>-7</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="28">
                   <c:v>-8</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="29">
                   <c:v>-9</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
                   <c:v>-10</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="31">
                   <c:v>-11</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="32">
                   <c:v>-12</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="33">
                   <c:v>-13</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="34">
                   <c:v>-14</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="35">
                   <c:v>-15</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="36">
                   <c:v>-16</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="37">
                   <c:v>-17</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="38">
                   <c:v>-18</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="39">
                   <c:v>-19</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="40">
                   <c:v>-20</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="41">
                   <c:v>-21</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="42">
                   <c:v>-22</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="43">
                   <c:v>-23</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="44">
                   <c:v>-24</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="45">
                   <c:v>-25</c:v>
                 </c:pt>
               </c:numCache>
@@ -1457,117 +1829,147 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating curve'!$G$4:$G$39</c:f>
+              <c:f>'heating time'!$G$4:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.76</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.76</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.84</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.41</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.61</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.24</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.89</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.56</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.9600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.69</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.44</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.21</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>12.81</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13.64</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14.49</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.36</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>17.16</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18.09</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.04</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22.01</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>23.04</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>24</c:v>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,7 +1977,1979 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EC4F-4E7D-B591-E044E31BB1F5}"/>
+              <c16:uniqueId val="{00000004-F469-4002-B6DF-7AF1A6311399}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'heating time'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'heating time'!$B$4:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'heating time'!$H$4:$H$49</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F469-4002-B6DF-7AF1A6311399}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'heating time'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'heating time'!$B$4:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'heating time'!$I$4:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F469-4002-B6DF-7AF1A6311399}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'heating time'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'heating time'!$B$4:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'heating time'!$J$4:$J$49</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F469-4002-B6DF-7AF1A6311399}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'heating time'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'heating time'!$B$4:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'heating time'!$K$4:$K$49</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F469-4002-B6DF-7AF1A6311399}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'heating time'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'heating time'!$B$4:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'heating time'!$L$4:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F469-4002-B6DF-7AF1A6311399}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'heating time'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'heating time'!$B$4:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'heating time'!$M$4:$M$49</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-F469-4002-B6DF-7AF1A6311399}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1632,12 +4006,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="et-EE"/>
+                  <a:t>Outside t</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Temperature</a:t>
+                  <a:t>emperature</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="et-EE"/>
-                  <a:t> forecast C</a:t>
+                  <a:t>  C</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1667,7 +4045,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="et-EE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1705,7 +4083,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="et-EE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1253415888"/>
@@ -1713,6 +4091,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
         <c:tickMarkSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
@@ -1797,7 +4176,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="et-EE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1829,7 +4208,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="et-EE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1253412976"/>
@@ -1845,7 +4224,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1871,7 +4250,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="et-EE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1901,7 +4280,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="et-EE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1909,7 +4288,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1978,7 +4356,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="et-EE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2854,7 +5232,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="et-EE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2892,7 +5270,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="et-EE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002485408"/>
@@ -2974,7 +5352,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="et-EE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3006,7 +5384,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="et-EE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002483328"/>
@@ -3054,7 +5432,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="et-EE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3130,7 +5508,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="et-EE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3157,7 +5535,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="92D050"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3322,7 +5700,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3524,7 +5902,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="et-EE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3562,7 +5940,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="et-EE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002485408"/>
@@ -3644,7 +6022,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="et-EE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3676,7 +6054,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="et-EE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002483328"/>
@@ -3724,7 +6102,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="et-EE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5381,27 +7759,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>473074</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>403224</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7228A4B3-BF93-EC39-6020-9833DA1F9C18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25286E8-A1D1-4A91-922B-82D1996CD2F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5419,52 +7799,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.19907</cdr:x>
-      <cdr:y>0.93964</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.40396</cdr:x>
-      <cdr:y>0.98935</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310945CE-A98D-544B-8862-8A3AB22EC8B3}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1628776" y="5041900"/>
-          <a:ext cx="1676400" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="et-EE" sz="1000"/>
-            <a:t>Parameter heatingCurve</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5507,7 +7841,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5630,24 +7964,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CD291F1-B273-484B-9439-B56A0AF94F29}" name="Table1" displayName="Table1" ref="B3:G39" totalsRowShown="0">
-  <autoFilter ref="B3:G39" xr:uid="{6CD291F1-B273-484B-9439-B56A0AF94F29}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{13AB0DD6-A6AE-4186-B573-B98CFC04765D}" name="Temperatuur"/>
-    <tableColumn id="2" xr3:uid="{0F3F1B0E-C66B-4921-9959-D32D46EA27F5}" name="0" dataDxfId="10">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(C$3/$C$1))/100&gt;24,24,(($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(C$3/$C$1))/100)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6DF2ADBA-7299-42FB-A768-24B7BDDBC930}" name="Table15" displayName="Table15" ref="B3:M49" totalsRowShown="0">
+  <autoFilter ref="B3:M49" xr:uid="{6CD291F1-B273-484B-9439-B56A0AF94F29}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{B7B388A6-489F-4CE2-8F22-CDB14832CA54}" name="Temperature"/>
+    <tableColumn id="8" xr3:uid="{CAEFA3D2-1D87-4597-88DA-F746A96B046C}" name="-10" dataDxfId="5">
+      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D83EFAC5-E51D-436F-A9A2-51A2CB525FD7}" name="2" dataDxfId="9">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(D$3/$C$1))/100&gt;24,24,(($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(D$3/$C$1))/100)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{3603CADA-C595-4E14-914A-B3631A006528}" name="-8" dataDxfId="6">
+      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BC85BFEA-5AF5-407F-ACAE-6527A9D24F10}" name="4" dataDxfId="8">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(E$3/$C$1))/100&gt;24,24,(($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(E$3/$C$1))/100)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{57991CAD-77E9-459F-A555-72C060D0D8CA}" name="-6" dataDxfId="7">
+      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{40D5E6C9-DFB7-4828-B405-CDEE1EB1E2D0}" name="6" dataDxfId="7">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(F$3/$C$1))/100&gt;24,24,(($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(F$3/$C$1))/100)</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{622DEF2D-5125-455A-B61A-BDC6E16ECD77}" name="-4" dataDxfId="8">
+      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9F980170-A149-4FD7-8F6B-8E37F271A6C0}" name="8" dataDxfId="6">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(G$3/$C$1))/100&gt;24,24,(($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(G$3/$C$1))/100)</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{96F2584A-4BBA-4834-99EC-BA4089091FE8}" name="-2" dataDxfId="9">
+      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2,0)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{C6BED476-737A-40E9-BAFB-AE17F070AF18}" name="0" dataDxfId="10">
+      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2,0)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{B7D6ECFC-B157-4A63-B156-4AC7645E5FB8}" name="2" dataDxfId="4">
+      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2,0)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{41297140-EA8B-448E-A57E-B614CDBB967B}" name="4" dataDxfId="3">
+      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2,0)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DF04E4BD-43FE-4AA0-9DF7-3D1C6802F7D2}" name="6" dataDxfId="2">
+      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2,0)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{EAFEC712-E0FF-4C40-A7FA-B16719B0BECE}" name="8" dataDxfId="1">
+      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2,0)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6B4462E9-D16A-4100-BE49-B199D8FBF199}" name="10" dataDxfId="0">
+      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5660,11 +8025,11 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3B10AF68-AC1F-4874-9651-C0DFD1A59184}" name="Hour"/>
     <tableColumn id="3" xr3:uid="{FD865039-C3F5-4FE9-B560-E1543C060AAC}" name="Energy price"/>
-    <tableColumn id="4" xr3:uid="{BD5533B0-A61C-4AC8-9C45-20095FBF7486}" name="2" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{EA176B3A-735E-4253-8EDA-2856ECD9E9E8}" name="3" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6A3E2CCC-4E9B-4FD1-ADC2-58544F9911A8}" name="4" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{EDBA40F9-632A-4948-9EF1-8F51E8F78182}" name="5" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{FE76B63B-F82F-4912-803A-EFD617B54C27}" name="6" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{BD5533B0-A61C-4AC8-9C45-20095FBF7486}" name="2" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{EA176B3A-735E-4253-8EDA-2856ECD9E9E8}" name="3" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{6A3E2CCC-4E9B-4FD1-ADC2-58544F9911A8}" name="4" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{EDBA40F9-632A-4948-9EF1-8F51E8F78182}" name="5" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{FE76B63B-F82F-4912-803A-EFD617B54C27}" name="6" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5676,16 +8041,16 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{50207E7B-91C6-4BB9-83A3-D13240EF0D1C}" name="Hour"/>
     <tableColumn id="3" xr3:uid="{0B03D944-737C-481C-93B9-B87F8FFD1802}" name="Energy price"/>
-    <tableColumn id="4" xr3:uid="{1443F733-B77B-485F-81CF-6314AA8458BA}" name="2" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{1443F733-B77B-485F-81CF-6314AA8458BA}" name="2" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5723,7 +8088,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5829,7 +8194,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5971,959 +8336,2332 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65565CE-1C77-455D-91F3-D23B3B822C0B}">
-  <dimension ref="B1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1BB5FD-B445-4B3D-9C53-86CBCF6A0649}">
+  <dimension ref="B1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="7" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="2.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1">
-        <v>0.2</v>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C49" si="0">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D49" si="1">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E49" si="2">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F49" si="3">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G49" si="4">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="C4:M49" si="5">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I49" si="6">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J49" si="7">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K49" si="8">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L49" si="9">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M49" si="10">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2,0)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:G39" si="0">IF((($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(C$3/$C$1))/100&gt;24,24,(($C$2-$B4)*($C$2-$B4)+($C$2-$B4)*(C$3/$C$1))/100)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.21</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.31</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.41</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.24</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.44</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.64</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.39</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.29</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>1.36</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>1.76</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.56</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>2.16</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>2.76</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.19</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.89</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>2.59</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>3.29</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.44</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2400000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>3.04</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>3.84</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.71</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>2.61</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>3.51</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>4.41</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D14" s="1">
+      <c r="I14" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>-2</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>-3</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>-4</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>-5</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>-6</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>-7</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>-8</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>-9</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>-10</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>-11</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>-12</v>
+      </c>
+      <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>-13</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>-14</v>
+      </c>
+      <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F14" s="1">
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>-15</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>-16</v>
+      </c>
+      <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G14" s="1">
+      <c r="D40" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>-17</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>-18</v>
+      </c>
+      <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="D42" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <v>-1</v>
-      </c>
-      <c r="C15" s="1">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>-19</v>
+      </c>
+      <c r="C43" s="1">
         <f t="shared" si="0"/>
-        <v>1.21</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>2.31</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>3.41</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>4.51</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>5.61</v>
+        <v>5</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="10"/>
+        <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>-2</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>1.44</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>2.64</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>3.84</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>5.04</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>-3</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>1.69</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>2.99</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>4.29</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>5.59</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>6.89</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <v>-4</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>1.96</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>3.36</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>4.76</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>6.16</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>-5</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>6.75</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>-6</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>2.56</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>4.16</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>5.76</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>7.36</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>8.9600000000000009</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <v>-7</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>2.89</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>4.59</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>6.29</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>7.99</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>9.69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22">
-        <v>-8</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>3.24</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>5.04</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>6.84</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>8.64</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>10.44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <v>-9</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>3.61</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>5.51</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>7.41</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>9.31</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>11.21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24">
-        <v>-10</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>-20</v>
+      </c>
+      <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E24" s="1">
+      <c r="D44" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>-21</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>-22</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>-23</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>-24</v>
+      </c>
+      <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F24" s="1">
+      <c r="D48" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>-25</v>
+      </c>
+      <c r="C49" s="1">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
+      <c r="E49" s="1">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25">
-        <v>-11</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>4.41</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>6.51</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>8.61</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>10.71</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>12.81</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <v>-12</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>4.84</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>7.04</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>9.24</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>11.44</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>13.64</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27">
-        <v>-13</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="0"/>
-        <v>5.29</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>7.59</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="0"/>
-        <v>9.89</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>12.19</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>14.49</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28">
-        <v>-14</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="0"/>
-        <v>5.76</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>8.16</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>10.56</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="0"/>
-        <v>12.96</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>15.36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29">
-        <v>-15</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>11.25</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>13.75</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30">
-        <v>-16</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="0"/>
-        <v>6.76</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>9.36</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>11.96</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>14.56</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>17.16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31">
-        <v>-17</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="0"/>
-        <v>7.29</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>9.99</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>12.69</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>15.39</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>18.09</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32">
-        <v>-18</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="0"/>
-        <v>7.84</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>10.64</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="0"/>
-        <v>13.44</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="0"/>
-        <v>16.239999999999998</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>19.04</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33">
-        <v>-19</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="0"/>
-        <v>8.41</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>11.31</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="0"/>
-        <v>14.21</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="0"/>
-        <v>17.11</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>20.010000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34">
-        <v>-20</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
+      <c r="F49" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35">
-        <v>-21</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" si="0"/>
-        <v>9.61</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>12.71</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>15.81</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="0"/>
-        <v>18.91</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>22.01</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36">
-        <v>-22</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="0"/>
-        <v>10.24</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>13.44</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="0"/>
-        <v>16.64</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="0"/>
-        <v>19.84</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="0"/>
-        <v>23.04</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37">
-        <v>-23</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="0"/>
-        <v>10.89</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>14.19</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="0"/>
-        <v>17.489999999999998</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="0"/>
-        <v>20.79</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="0"/>
+      <c r="I49" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38">
-        <v>-24</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="0"/>
-        <v>11.56</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>14.96</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="0"/>
-        <v>18.36</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="0"/>
-        <v>21.76</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="0"/>
+      <c r="L49" s="1">
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39">
-        <v>-25</v>
-      </c>
-      <c r="C39" s="1">
-        <f t="shared" si="0"/>
-        <v>12.25</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="0"/>
-        <v>15.75</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="0"/>
-        <v>19.25</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" si="0"/>
-        <v>22.75</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="0"/>
+      <c r="M49" s="1">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
     </row>
@@ -6951,25 +10689,25 @@
   <sheetData>
     <row r="5" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
         <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.35">
@@ -7177,8 +10915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8128E599-3232-41C3-A337-814FADC298B1}">
   <dimension ref="C5:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7188,13 +10926,13 @@
   <sheetData>
     <row r="5" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.35">

--- a/files/HeatingCurveGraph.xlsx
+++ b/files/HeatingCurveGraph.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/322f8d75bd36db00/Räägu 17a/Home IoT/Smart energy price for Shelly/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="8_{B9B855E9-B6F4-4BE5-BE0F-7BC5CB42E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C843218-232E-4426-BD34-F3E032B7F402}"/>
+  <xr:revisionPtr revIDLastSave="383" documentId="8_{B9B855E9-B6F4-4BE5-BE0F-7BC5CB42E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CD93025-9E62-4FEF-BBA7-5C8AAD352CF1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E44A6528-8152-4E24-BDB0-FDF95A825279}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{E44A6528-8152-4E24-BDB0-FDF95A825279}"/>
   </bookViews>
   <sheets>
     <sheet name="heating time 12h" sheetId="5" r:id="rId1"/>
     <sheet name="heating time 24h" sheetId="4" r:id="rId2"/>
-    <sheet name="heating window" sheetId="2" r:id="rId3"/>
-    <sheet name="smart heating" sheetId="3" r:id="rId4"/>
+    <sheet name="4h heating periods" sheetId="2" r:id="rId3"/>
+    <sheet name="24h heating period" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>2</t>
   </si>
@@ -94,6 +94,15 @@
   <si>
     <t>Temperature</t>
   </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +131,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="186"/>
@@ -190,19 +206,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -235,24 +273,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -4133,7 +4153,8 @@
         <c:axId val="1253415888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25"/>
+          <c:max val="14"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8385,7 +8406,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="et-EE" sz="1800"/>
-              <a:t>Day divided into 6 heating windows</a:t>
+              <a:t> Heating activated for 1 hours within every 4-hour period</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8431,7 +8452,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating window'!$D$5</c:f>
+              <c:f>'4h heating periods'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8452,7 +8473,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'heating window'!$C$6:$C$29</c:f>
+              <c:f>'4h heating periods'!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8533,7 +8554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating window'!$D$6:$D$29</c:f>
+              <c:f>'4h heating periods'!$B$6:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8545,9 +8566,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8563,28 +8581,30 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating window'!$E$5</c:f>
+              <c:f>'4h heating periods'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'heating window'!$C$6:$C$29</c:f>
+              <c:f>'4h heating periods'!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8665,21 +8685,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating window'!$E$6:$E$29</c:f>
+              <c:f>'4h heating periods'!$C$6:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8695,11 +8709,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating window'!$F$5</c:f>
+              <c:f>'4h heating periods'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8716,7 +8730,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'heating window'!$C$6:$C$29</c:f>
+              <c:f>'4h heating periods'!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8797,21 +8811,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating window'!$F$6:$F$29</c:f>
+              <c:f>'4h heating periods'!$D$6:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8827,11 +8838,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating window'!$G$5</c:f>
+              <c:f>'4h heating periods'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8848,7 +8859,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'heating window'!$C$6:$C$29</c:f>
+              <c:f>'4h heating periods'!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8929,21 +8940,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating window'!$G$6:$G$29</c:f>
+              <c:f>'4h heating periods'!$E$6:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="12">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>220</c:v>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8959,18 +8967,18 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating window'!$H$5</c:f>
+              <c:f>'4h heating periods'!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -8978,9 +8986,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-93A8-485F-95D1-A953DA617788}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-93A8-485F-95D1-A953DA617788}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'heating window'!$C$6:$C$29</c:f>
+              <c:f>'4h heating periods'!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9061,21 +9111,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating window'!$H$6:$H$29</c:f>
+              <c:f>'4h heating periods'!$F$6:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="16">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>300</c:v>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9091,11 +9135,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating window'!$I$5</c:f>
+              <c:f>'4h heating periods'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9114,7 +9158,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'heating window'!$C$6:$C$29</c:f>
+              <c:f>'4h heating periods'!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9195,21 +9239,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating window'!$I$6:$I$29</c:f>
+              <c:f>'4h heating periods'!$G$6:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="20">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>80</c:v>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9217,6 +9258,394 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C0AB-46CB-8FC9-972FF92B7567}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4h heating periods'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4h heating periods'!$A$6:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4h heating periods'!$H$6:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="17">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93A8-485F-95D1-A953DA617788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4h heating periods'!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4h heating periods'!$A$6:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4h heating periods'!$I$6:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="16">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-93A8-485F-95D1-A953DA617788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4h heating periods'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4h heating periods'!$A$6:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4h heating periods'!$J$6:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="20">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-93A8-485F-95D1-A953DA617788}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9536,9 +9965,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="et-EE" sz="1800"/>
-              <a:t>Heating is based on weather forecast</a:t>
+              <a:rPr lang="et-EE" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>10 </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>most cost-effective hours </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="et-EE" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>within a day</a:t>
+            </a:r>
+            <a:endParaRPr lang="et-EE" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -9583,11 +10027,173 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'smart heating'!$D$5</c:f>
+              <c:f>'24h heating period'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Energy price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'24h heating period'!$C$6:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'24h heating period'!$D$6:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8363-483C-8936-B3E48BD4CFDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'24h heating period'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9604,7 +10210,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'smart heating'!$C$6:$C$29</c:f>
+              <c:f>'24h heating period'!$C$6:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9685,172 +10291,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'smart heating'!$D$6:$D$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8363-483C-8936-B3E48BD4CFDB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'smart heating'!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'smart heating'!$C$6:$C$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'smart heating'!$E$6:$E$29</c:f>
+              <c:f>'24h heating period'!$E$6:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9874,6 +10315,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>100</c:v>
@@ -12460,16 +12904,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12539,85 +12983,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892181A3-76A5-D6AB-028A-0C9B0256016C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6794500" y="3581400"/>
-          <a:ext cx="3905250" cy="1276350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="et-EE" sz="1800"/>
-            <a:t>Temperature -6'C and heatingCurve = 8</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="et-EE" sz="1800"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="et-EE" sz="1800"/>
-            <a:t>Calculated heating time is 9 cheapest hours from the day.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12639,37 +13004,37 @@
   </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{65D44D9F-FF13-4DD2-B2BA-7DBD9EF8F4AE}" name="Temperature"/>
-    <tableColumn id="8" xr3:uid="{FA866A52-1F0A-4DE1-95DB-F60CCE0C1A4C}" name="-10" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{FA866A52-1F0A-4DE1-95DB-F60CCE0C1A4C}" name="-10" dataDxfId="28">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1252A914-7586-44E9-9AF7-B121C464D68A}" name="-8" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{1252A914-7586-44E9-9AF7-B121C464D68A}" name="-8" dataDxfId="27">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{28BE90FC-4C42-4A3F-9DFA-E8178C4162D0}" name="-6" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{28BE90FC-4C42-4A3F-9DFA-E8178C4162D0}" name="-6" dataDxfId="26">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5C394BCA-E79A-4498-8BCE-D731A17F3F71}" name="-4" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{5C394BCA-E79A-4498-8BCE-D731A17F3F71}" name="-4" dataDxfId="25">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{728A04EA-7C15-4D3E-88EF-D296633E3C26}" name="-2" dataDxfId="6">
+    <tableColumn id="12" xr3:uid="{728A04EA-7C15-4D3E-88EF-D296633E3C26}" name="-2" dataDxfId="24">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9233041D-99F2-4D67-A588-E3D84B4FB4B9}" name="0" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{9233041D-99F2-4D67-A588-E3D84B4FB4B9}" name="0" dataDxfId="23">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A95678ED-7F77-473B-B3E0-678B99210356}" name="2" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{A95678ED-7F77-473B-B3E0-678B99210356}" name="2" dataDxfId="22">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DD0B8DB9-2906-47F7-9F0C-D079244D5AC4}" name="4" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{DD0B8DB9-2906-47F7-9F0C-D079244D5AC4}" name="4" dataDxfId="21">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DAAFA0C3-D7AD-40D3-B2DE-1C14E6400F0F}" name="6" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{DAAFA0C3-D7AD-40D3-B2DE-1C14E6400F0F}" name="6" dataDxfId="20">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F593ECA7-A39E-4F49-B868-95E745B37E99}" name="8" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{F593ECA7-A39E-4F49-B868-95E745B37E99}" name="8" dataDxfId="19">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0902020A-9F51-4944-ABDC-B7878811E9C7}" name="10" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{0902020A-9F51-4944-ABDC-B7878811E9C7}" name="10" dataDxfId="18">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12695,37 +13060,37 @@
   </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{B7B388A6-489F-4CE2-8F22-CDB14832CA54}" name="Temperature"/>
-    <tableColumn id="8" xr3:uid="{CAEFA3D2-1D87-4597-88DA-F746A96B046C}" name="-10" dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{CAEFA3D2-1D87-4597-88DA-F746A96B046C}" name="-10" dataDxfId="17">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3603CADA-C595-4E14-914A-B3631A006528}" name="-8" dataDxfId="26">
+    <tableColumn id="9" xr3:uid="{3603CADA-C595-4E14-914A-B3631A006528}" name="-8" dataDxfId="16">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{57991CAD-77E9-459F-A555-72C060D0D8CA}" name="-6" dataDxfId="25">
+    <tableColumn id="10" xr3:uid="{57991CAD-77E9-459F-A555-72C060D0D8CA}" name="-6" dataDxfId="15">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{622DEF2D-5125-455A-B61A-BDC6E16ECD77}" name="-4" dataDxfId="24">
+    <tableColumn id="11" xr3:uid="{622DEF2D-5125-455A-B61A-BDC6E16ECD77}" name="-4" dataDxfId="14">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{96F2584A-4BBA-4834-99EC-BA4089091FE8}" name="-2" dataDxfId="23">
+    <tableColumn id="12" xr3:uid="{96F2584A-4BBA-4834-99EC-BA4089091FE8}" name="-2" dataDxfId="13">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C6BED476-737A-40E9-BAFB-AE17F070AF18}" name="0" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{C6BED476-737A-40E9-BAFB-AE17F070AF18}" name="0" dataDxfId="12">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B7D6ECFC-B157-4A63-B156-4AC7645E5FB8}" name="2" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{B7D6ECFC-B157-4A63-B156-4AC7645E5FB8}" name="2" dataDxfId="11">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{41297140-EA8B-448E-A57E-B614CDBB967B}" name="4" dataDxfId="20">
+    <tableColumn id="3" xr3:uid="{41297140-EA8B-448E-A57E-B614CDBB967B}" name="4" dataDxfId="10">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DF04E4BD-43FE-4AA0-9DF7-3D1C6802F7D2}" name="6" dataDxfId="19">
+    <tableColumn id="4" xr3:uid="{DF04E4BD-43FE-4AA0-9DF7-3D1C6802F7D2}" name="6" dataDxfId="9">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EAFEC712-E0FF-4C40-A7FA-B16719B0BECE}" name="8" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{EAFEC712-E0FF-4C40-A7FA-B16719B0BECE}" name="8" dataDxfId="8">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6B4462E9-D16A-4100-BE49-B199D8FBF199}" name="10" dataDxfId="17">
+    <tableColumn id="6" xr3:uid="{6B4462E9-D16A-4100-BE49-B199D8FBF199}" name="10" dataDxfId="7">
       <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2,0)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12734,16 +13099,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{786A2FE9-031F-4391-B9D3-B1D342659540}" name="Table13" displayName="Table13" ref="C5:I29" totalsRowShown="0">
-  <autoFilter ref="C5:I29" xr:uid="{ED9408A7-D79A-4D04-B215-DB5D059DBE7E}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{786A2FE9-031F-4391-B9D3-B1D342659540}" name="Table13" displayName="Table13" ref="A5:J29" totalsRowShown="0">
+  <autoFilter ref="A5:J29" xr:uid="{ED9408A7-D79A-4D04-B215-DB5D059DBE7E}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{3B10AF68-AC1F-4874-9651-C0DFD1A59184}" name="Hour"/>
     <tableColumn id="3" xr3:uid="{FD865039-C3F5-4FE9-B560-E1543C060AAC}" name="Energy price"/>
-    <tableColumn id="4" xr3:uid="{BD5533B0-A61C-4AC8-9C45-20095FBF7486}" name="2" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{EA176B3A-735E-4253-8EDA-2856ECD9E9E8}" name="3" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{6A3E2CCC-4E9B-4FD1-ADC2-58544F9911A8}" name="4" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{EDBA40F9-632A-4948-9EF1-8F51E8F78182}" name="5" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{FE76B63B-F82F-4912-803A-EFD617B54C27}" name="6" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{2EB992A7-20D5-45FA-B97A-88F841869478}" name="7" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{BD5533B0-A61C-4AC8-9C45-20095FBF7486}" name="2" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{EA176B3A-735E-4253-8EDA-2856ECD9E9E8}" name="3" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{380D7D2E-4CF2-40EB-AA29-A607E19A9635}" name="32"/>
+    <tableColumn id="6" xr3:uid="{6A3E2CCC-4E9B-4FD1-ADC2-58544F9911A8}" name="4" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{EDBA40F9-632A-4948-9EF1-8F51E8F78182}" name="5" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{41ECF26E-65DE-410B-ADB9-7647AD3A39CC}" name="52"/>
+    <tableColumn id="8" xr3:uid="{FE76B63B-F82F-4912-803A-EFD617B54C27}" name="6" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12755,7 +13123,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{50207E7B-91C6-4BB9-83A3-D13240EF0D1C}" name="Hour"/>
     <tableColumn id="3" xr3:uid="{0B03D944-737C-481C-93B9-B87F8FFD1802}" name="Energy price"/>
-    <tableColumn id="4" xr3:uid="{1443F733-B77B-485F-81CF-6314AA8458BA}" name="2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{1443F733-B77B-485F-81CF-6314AA8458BA}" name="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13060,7 +13428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477A72E7-004E-41B7-B568-B8550F918A98}">
   <dimension ref="B1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -13130,7 +13498,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:M49" si="0">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2,0)/2))</f>
+        <f t="shared" ref="C4:C49" si="0">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2,0)/2))</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
@@ -17722,10 +18090,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09DDC9F-7735-4EE3-819B-0BBD93AF3A1F}">
-  <dimension ref="C5:I29"/>
+  <dimension ref="A5:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17733,18 +18101,24 @@
     <col min="5" max="5" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -17753,202 +18127,228 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
         <v>40</v>
       </c>
+      <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="B7">
         <v>50</v>
       </c>
+      <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="B8">
         <v>60</v>
       </c>
+      <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="C10" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="C11" s="5"/>
+      <c r="D11">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="C12" s="5"/>
+      <c r="D12">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="C13" s="5"/>
+      <c r="D13">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>8</v>
       </c>
+      <c r="C14" s="5"/>
       <c r="F14">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>9</v>
       </c>
-      <c r="F15">
+      <c r="C15" s="5"/>
+      <c r="E15">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>10</v>
       </c>
-      <c r="F16">
+      <c r="C16" s="5"/>
+      <c r="E16">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>11</v>
       </c>
-      <c r="F17">
+      <c r="C17" s="5"/>
+      <c r="E17">
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>12</v>
       </c>
-      <c r="G18">
+      <c r="C18" s="5"/>
+      <c r="F18">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>13</v>
       </c>
+      <c r="C19" s="5"/>
       <c r="G19">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>14</v>
       </c>
+      <c r="C20" s="5"/>
       <c r="G20">
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>15</v>
       </c>
+      <c r="C21" s="5"/>
       <c r="G21">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>16</v>
       </c>
-      <c r="H22">
+      <c r="C22" s="5"/>
+      <c r="I22">
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>17</v>
       </c>
+      <c r="C23" s="5"/>
       <c r="H23">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>18</v>
       </c>
+      <c r="C24" s="5"/>
       <c r="H24">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>19</v>
       </c>
+      <c r="C25" s="5"/>
       <c r="H25">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C26">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>20</v>
       </c>
-      <c r="I26">
+      <c r="C26" s="5"/>
+      <c r="J26">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>21</v>
       </c>
-      <c r="I27">
+      <c r="C27" s="5"/>
+      <c r="J27">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>22</v>
       </c>
-      <c r="I28">
+      <c r="C28" s="5"/>
+      <c r="J28">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>23</v>
       </c>
+      <c r="C29" s="5"/>
       <c r="I29">
         <v>80</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -17961,8 +18361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8128E599-3232-41C3-A337-814FADC298B1}">
   <dimension ref="C5:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18041,7 +18441,7 @@
       <c r="C13">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>120</v>
       </c>
     </row>

--- a/files/HeatingCurveGraph.xlsx
+++ b/files/HeatingCurveGraph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/322f8d75bd36db00/Räägu 17a/Home IoT/Smart energy price for Shelly/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="383" documentId="8_{B9B855E9-B6F4-4BE5-BE0F-7BC5CB42E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CD93025-9E62-4FEF-BBA7-5C8AAD352CF1}"/>
+  <xr:revisionPtr revIDLastSave="418" documentId="8_{B9B855E9-B6F4-4BE5-BE0F-7BC5CB42E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E3052A9-EC69-48EF-B6EA-4422C649474C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{E44A6528-8152-4E24-BDB0-FDF95A825279}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{E44A6528-8152-4E24-BDB0-FDF95A825279}"/>
   </bookViews>
   <sheets>
     <sheet name="heating time 12h" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>2</t>
   </si>
@@ -103,6 +103,12 @@
   <si>
     <t>52</t>
   </si>
+  <si>
+    <t>24h Heating Curve</t>
+  </si>
+  <si>
+    <t>12h Heating Curve</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +149,25 @@
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +184,13 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,21 +228,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
@@ -405,7 +458,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 12h'!$C$3</c:f>
+              <c:f>'heating time 12h'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -428,7 +481,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 12h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 12h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -575,7 +628,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 12h'!$C$4:$C$49</c:f>
+              <c:f>'heating time 12h'!$C$5:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -732,7 +785,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 12h'!$D$3</c:f>
+              <c:f>'heating time 12h'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -755,7 +808,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 12h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 12h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -902,7 +955,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 12h'!$D$4:$D$49</c:f>
+              <c:f>'heating time 12h'!$D$5:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -1059,7 +1112,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 12h'!$E$3</c:f>
+              <c:f>'heating time 12h'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1082,7 +1135,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 12h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 12h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -1229,7 +1282,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 12h'!$E$4:$E$49</c:f>
+              <c:f>'heating time 12h'!$E$5:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -1386,7 +1439,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 12h'!$F$3</c:f>
+              <c:f>'heating time 12h'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1409,7 +1462,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 12h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 12h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -1556,7 +1609,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 12h'!$F$4:$F$49</c:f>
+              <c:f>'heating time 12h'!$F$5:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -1713,7 +1766,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 12h'!$G$3</c:f>
+              <c:f>'heating time 12h'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1736,7 +1789,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 12h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 12h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -1883,7 +1936,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 12h'!$G$4:$G$49</c:f>
+              <c:f>'heating time 12h'!$G$5:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -2040,7 +2093,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 12h'!$H$3</c:f>
+              <c:f>'heating time 12h'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2063,7 +2116,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 12h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 12h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -2210,7 +2263,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 12h'!$H$4:$H$49</c:f>
+              <c:f>'heating time 12h'!$H$5:$H$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -2367,7 +2420,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 12h'!$I$3</c:f>
+              <c:f>'heating time 12h'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2392,7 +2445,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 12h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 12h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -2539,7 +2592,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 12h'!$I$4:$I$49</c:f>
+              <c:f>'heating time 12h'!$I$5:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -2696,7 +2749,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 12h'!$J$3</c:f>
+              <c:f>'heating time 12h'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2721,7 +2774,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 12h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 12h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -2868,7 +2921,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 12h'!$J$4:$J$49</c:f>
+              <c:f>'heating time 12h'!$J$5:$J$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -3025,7 +3078,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 12h'!$K$3</c:f>
+              <c:f>'heating time 12h'!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3050,7 +3103,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 12h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 12h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -3197,7 +3250,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 12h'!$K$4:$K$49</c:f>
+              <c:f>'heating time 12h'!$K$5:$K$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -3354,7 +3407,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 12h'!$L$3</c:f>
+              <c:f>'heating time 12h'!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3379,7 +3432,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 12h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 12h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -3526,7 +3579,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 12h'!$L$4:$L$49</c:f>
+              <c:f>'heating time 12h'!$L$5:$L$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -3683,7 +3736,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 12h'!$M$3</c:f>
+              <c:f>'heating time 12h'!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3708,7 +3761,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 12h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 12h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -3855,7 +3908,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 12h'!$M$4:$M$49</c:f>
+              <c:f>'heating time 12h'!$M$5:$M$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -4279,7 +4332,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4431,7 +4484,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 24h'!$C$3</c:f>
+              <c:f>'heating time 24h'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4454,7 +4507,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 24h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 24h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -4601,7 +4654,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 24h'!$C$4:$C$49</c:f>
+              <c:f>'heating time 24h'!$C$5:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -4758,7 +4811,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 24h'!$D$3</c:f>
+              <c:f>'heating time 24h'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4781,7 +4834,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 24h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 24h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -4928,7 +4981,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 24h'!$D$4:$D$49</c:f>
+              <c:f>'heating time 24h'!$D$5:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -5085,7 +5138,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 24h'!$E$3</c:f>
+              <c:f>'heating time 24h'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5108,7 +5161,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 24h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 24h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -5255,7 +5308,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 24h'!$E$4:$E$49</c:f>
+              <c:f>'heating time 24h'!$E$5:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -5412,7 +5465,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 24h'!$F$3</c:f>
+              <c:f>'heating time 24h'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5435,7 +5488,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 24h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 24h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -5582,7 +5635,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 24h'!$F$4:$F$49</c:f>
+              <c:f>'heating time 24h'!$F$5:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -5739,7 +5792,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 24h'!$G$3</c:f>
+              <c:f>'heating time 24h'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5762,7 +5815,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 24h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 24h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -5909,7 +5962,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 24h'!$G$4:$G$49</c:f>
+              <c:f>'heating time 24h'!$G$5:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -6066,7 +6119,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 24h'!$H$3</c:f>
+              <c:f>'heating time 24h'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6089,7 +6142,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 24h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 24h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -6236,7 +6289,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 24h'!$H$4:$H$49</c:f>
+              <c:f>'heating time 24h'!$H$5:$H$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -6393,7 +6446,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 24h'!$I$3</c:f>
+              <c:f>'heating time 24h'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6418,7 +6471,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 24h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 24h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -6565,7 +6618,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 24h'!$I$4:$I$49</c:f>
+              <c:f>'heating time 24h'!$I$5:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -6722,7 +6775,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 24h'!$J$3</c:f>
+              <c:f>'heating time 24h'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6747,7 +6800,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 24h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 24h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -6894,7 +6947,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 24h'!$J$4:$J$49</c:f>
+              <c:f>'heating time 24h'!$J$5:$J$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -7051,7 +7104,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 24h'!$K$3</c:f>
+              <c:f>'heating time 24h'!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7076,7 +7129,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 24h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 24h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -7223,7 +7276,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 24h'!$K$4:$K$49</c:f>
+              <c:f>'heating time 24h'!$K$5:$K$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -7380,7 +7433,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 24h'!$L$3</c:f>
+              <c:f>'heating time 24h'!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7405,7 +7458,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 24h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 24h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -7552,7 +7605,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 24h'!$L$4:$L$49</c:f>
+              <c:f>'heating time 24h'!$L$5:$L$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -7709,7 +7762,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'heating time 24h'!$M$3</c:f>
+              <c:f>'heating time 24h'!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7734,7 +7787,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'heating time 24h'!$B$4:$B$49</c:f>
+              <c:f>'heating time 24h'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -7881,7 +7934,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'heating time 24h'!$M$4:$M$49</c:f>
+              <c:f>'heating time 24h'!$M$5:$M$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="46"/>
@@ -8304,7 +8357,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12820,13 +12873,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>403224</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12854,6 +12907,71 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A11189BC-08D5-4762-8DB8-22C47AC63621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4711700" y="5473700"/>
+          <a:ext cx="1282700" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="et-EE" sz="1100"/>
+            <a:t>Heating Curve</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12862,15 +12980,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>403224</xdr:colOff>
+      <xdr:colOff>250824</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12895,6 +13013,71 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974EDECF-C00D-05E4-84DE-4E57121A3B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4578350" y="5581650"/>
+          <a:ext cx="1282700" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="et-EE" sz="1100"/>
+            <a:t>Heating Curve</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12987,8 +13170,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4296B38D-40B8-4452-82FF-03FD7D26C9D0}" name="Table152" displayName="Table152" ref="B3:M49" totalsRowShown="0">
-  <autoFilter ref="B3:M49" xr:uid="{6CD291F1-B273-484B-9439-B56A0AF94F29}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4296B38D-40B8-4452-82FF-03FD7D26C9D0}" name="Table152" displayName="Table152" ref="B4:M50" totalsRowShown="0">
+  <autoFilter ref="B4:M50" xr:uid="{6CD291F1-B273-484B-9439-B56A0AF94F29}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -13005,37 +13188,37 @@
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{65D44D9F-FF13-4DD2-B2BA-7DBD9EF8F4AE}" name="Temperature"/>
     <tableColumn id="8" xr3:uid="{FA866A52-1F0A-4DE1-95DB-F60CCE0C1A4C}" name="-10" dataDxfId="28">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2,0)/2))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{1252A914-7586-44E9-9AF7-B121C464D68A}" name="-8" dataDxfId="27">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2,0)/2))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{28BE90FC-4C42-4A3F-9DFA-E8178C4162D0}" name="-6" dataDxfId="26">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2,0)/2))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{5C394BCA-E79A-4498-8BCE-D731A17F3F71}" name="-4" dataDxfId="25">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2,0)/2))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{728A04EA-7C15-4D3E-88EF-D296633E3C26}" name="-2" dataDxfId="24">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2,0)/2))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{9233041D-99F2-4D67-A588-E3D84B4FB4B9}" name="0" dataDxfId="23">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2,0)/2))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{A95678ED-7F77-473B-B3E0-678B99210356}" name="2" dataDxfId="22">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2,0)/2))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{DD0B8DB9-2906-47F7-9F0C-D079244D5AC4}" name="4" dataDxfId="21">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2,0)/2))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{DAAFA0C3-D7AD-40D3-B2DE-1C14E6400F0F}" name="6" dataDxfId="20">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2,0)/2))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{F593ECA7-A39E-4F49-B868-95E745B37E99}" name="8" dataDxfId="19">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2,0)/2))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{0902020A-9F51-4944-ABDC-B7878811E9C7}" name="10" dataDxfId="18">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2,0)/2))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13043,8 +13226,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6DF2ADBA-7299-42FB-A768-24B7BDDBC930}" name="Table15" displayName="Table15" ref="B3:M49" totalsRowShown="0">
-  <autoFilter ref="B3:M49" xr:uid="{6CD291F1-B273-484B-9439-B56A0AF94F29}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6DF2ADBA-7299-42FB-A768-24B7BDDBC930}" name="Table15" displayName="Table15" ref="B4:M50" totalsRowShown="0">
+  <autoFilter ref="B4:M50" xr:uid="{6CD291F1-B273-484B-9439-B56A0AF94F29}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -13061,37 +13244,37 @@
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{B7B388A6-489F-4CE2-8F22-CDB14832CA54}" name="Temperature"/>
     <tableColumn id="8" xr3:uid="{CAEFA3D2-1D87-4597-88DA-F746A96B046C}" name="-10" dataDxfId="17">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2,0)))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{3603CADA-C595-4E14-914A-B3631A006528}" name="-8" dataDxfId="16">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2,0)))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{57991CAD-77E9-459F-A555-72C060D0D8CA}" name="-6" dataDxfId="15">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2,0)))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{622DEF2D-5125-455A-B61A-BDC6E16ECD77}" name="-4" dataDxfId="14">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2,0)))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{96F2584A-4BBA-4834-99EC-BA4089091FE8}" name="-2" dataDxfId="13">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2,0)))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{C6BED476-737A-40E9-BAFB-AE17F070AF18}" name="0" dataDxfId="12">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2,0)))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{B7D6ECFC-B157-4A63-B156-4AC7645E5FB8}" name="2" dataDxfId="11">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2,0)))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{41297140-EA8B-448E-A57E-B614CDBB967B}" name="4" dataDxfId="10">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2,0)))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{DF04E4BD-43FE-4AA0-9DF7-3D1C6802F7D2}" name="6" dataDxfId="9">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2,0)))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{EAFEC712-E0FF-4C40-A7FA-B16719B0BECE}" name="8" dataDxfId="8">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2,0)))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{6B4462E9-D16A-4100-BE49-B199D8FBF199}" name="10" dataDxfId="7">
-      <calculatedColumnFormula>IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2,0)))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13104,14 +13287,14 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{3B10AF68-AC1F-4874-9651-C0DFD1A59184}" name="Hour"/>
     <tableColumn id="3" xr3:uid="{FD865039-C3F5-4FE9-B560-E1543C060AAC}" name="Energy price"/>
-    <tableColumn id="2" xr3:uid="{2EB992A7-20D5-45FA-B97A-88F841869478}" name="7" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{BD5533B0-A61C-4AC8-9C45-20095FBF7486}" name="2" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{EA176B3A-735E-4253-8EDA-2856ECD9E9E8}" name="3" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2EB992A7-20D5-45FA-B97A-88F841869478}" name="7" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{BD5533B0-A61C-4AC8-9C45-20095FBF7486}" name="2" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{EA176B3A-735E-4253-8EDA-2856ECD9E9E8}" name="3" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{380D7D2E-4CF2-40EB-AA29-A607E19A9635}" name="32"/>
-    <tableColumn id="6" xr3:uid="{6A3E2CCC-4E9B-4FD1-ADC2-58544F9911A8}" name="4" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{EDBA40F9-632A-4948-9EF1-8F51E8F78182}" name="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6A3E2CCC-4E9B-4FD1-ADC2-58544F9911A8}" name="4" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{EDBA40F9-632A-4948-9EF1-8F51E8F78182}" name="5" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{41ECF26E-65DE-410B-ADB9-7647AD3A39CC}" name="52"/>
-    <tableColumn id="8" xr3:uid="{FE76B63B-F82F-4912-803A-EFD617B54C27}" name="6" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{FE76B63B-F82F-4912-803A-EFD617B54C27}" name="6" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13123,7 +13306,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{50207E7B-91C6-4BB9-83A3-D13240EF0D1C}" name="Hour"/>
     <tableColumn id="3" xr3:uid="{0B03D944-737C-481C-93B9-B87F8FFD1802}" name="Energy price"/>
-    <tableColumn id="4" xr3:uid="{1443F733-B77B-485F-81CF-6314AA8458BA}" name="2" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1443F733-B77B-485F-81CF-6314AA8458BA}" name="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13426,10 +13609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477A72E7-004E-41B7-B568-B8550F918A98}">
-  <dimension ref="B1:M49"/>
+  <dimension ref="B1:M50"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13456,144 +13639,111 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C49" si="0">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2,0)/2))</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D49" si="1">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2,0)/2))</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E49" si="2">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2,0)/2))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F49" si="3">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2,0)/2))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G49" si="4">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2,0)/2))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H49" si="5">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2,0)/2))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I49" si="6">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2,0)/2))</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" ref="J4:J49" si="7">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2,0)/2))</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4:K49" si="8">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2,0)/2))</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L49" si="9">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2,0)/2))</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" ref="M4:M49" si="10">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)/2&gt;12,12,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2,0)/2))</f>
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C5:C50" si="0">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2,0)/2))</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D5:D50" si="1">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2,0)/2))</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E5:E50" si="2">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2,0)/2))</f>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F5:F50" si="3">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2,0)/2))</f>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G5:G50" si="4">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2,0)/2))</f>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H5:H50" si="5">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2,0)/2))</f>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I5:I50" si="6">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2,0)/2))</f>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J5:J50" si="7">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2,0)/2))</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K5:K50" si="8">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2,0)/2))</f>
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L5:L50" si="9">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2,0)/2))</f>
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M5:M50" si="10">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2,0)/2))</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -13642,7 +13792,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -13691,7 +13841,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -13723,24 +13873,24 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -13789,7 +13939,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -13817,28 +13967,28 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="7"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="9"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="10"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
@@ -13887,7 +14037,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
@@ -13915,28 +14065,28 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
@@ -13985,7 +14135,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -14009,32 +14159,32 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="7"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="8"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="9"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="10"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
@@ -14083,7 +14233,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
@@ -14107,32 +14257,32 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
@@ -14181,7 +14331,7 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
@@ -14201,36 +14351,36 @@
       </c>
       <c r="G18" s="1">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="8"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="9"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="10"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
@@ -14279,7 +14429,7 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
@@ -14299,36 +14449,36 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
@@ -14377,7 +14527,7 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
@@ -14393,40 +14543,40 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="6"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="7"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="8"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="9"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="10"/>
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
@@ -14475,7 +14625,7 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
@@ -14491,40 +14641,40 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
@@ -14573,7 +14723,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
@@ -14585,44 +14735,44 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="6"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="7"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="8"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="9"/>
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="10"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
@@ -14671,7 +14821,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
@@ -14683,44 +14833,44 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
@@ -14769,7 +14919,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
@@ -14777,48 +14927,48 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="6"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="7"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="8"/>
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="9"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="10"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
@@ -14867,7 +15017,7 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
@@ -14875,48 +15025,48 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
@@ -14965,56 +15115,56 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="4"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="6"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="7"/>
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="8"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="9"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="10"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="0"/>
@@ -15063,56 +15213,56 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="0"/>
@@ -15161,56 +15311,56 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="4"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="6"/>
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="7"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="8"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="9"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="10"/>
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="0"/>
@@ -15259,56 +15409,56 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="0"/>
@@ -15357,47 +15507,47 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="4"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="6"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="7"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="8"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="9"/>
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="10"/>
@@ -15406,7 +15556,7 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="0"/>
@@ -15455,47 +15605,47 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="10"/>
@@ -15504,7 +15654,7 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="0"/>
@@ -15553,43 +15703,43 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="3"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="4"/>
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="5"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="7"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="8"/>
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="9"/>
@@ -15602,7 +15752,7 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="0"/>
@@ -15651,43 +15801,43 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48">
-        <v>-24</v>
+        <v>-23</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="9"/>
@@ -15700,7 +15850,7 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="0"/>
@@ -15747,7 +15897,59 @@
         <v>12</v>
       </c>
     </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>-25</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:M3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -15758,10 +15960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1BB5FD-B445-4B3D-9C53-86CBCF6A0649}">
-  <dimension ref="B1:M49"/>
+  <dimension ref="B1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15788,144 +15990,111 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C49" si="0">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+C$3-2,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D49" si="1">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+D$3-2,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E49" si="2">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+E$3-2,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F49" si="3">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+F$3-2,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G49" si="4">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+G$3-2,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H49" si="5">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+H$3-2,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I49" si="6">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+I$3-2,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" ref="J4:J49" si="7">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+J$3-2,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4:K49" si="8">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+K$3-2,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L49" si="9">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+L$3-2,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" ref="M4:M49" si="10">IF((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)&gt;24,24,IF(OR((($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2)&lt;0,$B4&gt;$C$2),0,ROUNDDOWN(($C$2-$B4)*($C$1-1)+$C$2-$B4+M$3-2,0)))</f>
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C5:C50" si="0">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2,0)))</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D5:D50" si="1">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2,0)))</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E5:E50" si="2">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2,0)))</f>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F5:F50" si="3">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2,0)))</f>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G5:G50" si="4">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2,0)))</f>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H5:H50" si="5">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2,0)))</f>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I5:I50" si="6">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2,0)))</f>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J5:J50" si="7">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2,0)))</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K5:K50" si="8">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2,0)))</f>
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L5:L50" si="9">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2,0)))</f>
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M5:M50" si="10">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2,0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -15974,7 +16143,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -16023,7 +16192,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -16055,24 +16224,24 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -16121,7 +16290,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -16149,28 +16318,28 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
@@ -16219,7 +16388,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
@@ -16247,28 +16416,28 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
@@ -16317,7 +16486,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -16341,32 +16510,32 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
@@ -16415,7 +16584,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
@@ -16439,32 +16608,32 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
@@ -16513,7 +16682,7 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
@@ -16533,36 +16702,36 @@
       </c>
       <c r="G18" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
@@ -16611,7 +16780,7 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
@@ -16631,36 +16800,36 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
@@ -16709,7 +16878,7 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
@@ -16725,40 +16894,40 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
@@ -16807,7 +16976,7 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
@@ -16823,40 +16992,40 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
@@ -16905,7 +17074,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
@@ -16917,44 +17086,44 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
@@ -17003,7 +17172,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
@@ -17015,44 +17184,44 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
@@ -17101,7 +17270,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
@@ -17109,48 +17278,48 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
@@ -17199,7 +17368,7 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
@@ -17207,48 +17376,48 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
@@ -17297,56 +17466,56 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="0"/>
@@ -17395,56 +17564,56 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="0"/>
@@ -17493,56 +17662,56 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="0"/>
@@ -17591,56 +17760,56 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="0"/>
@@ -17689,47 +17858,47 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="10"/>
@@ -17738,7 +17907,7 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="0"/>
@@ -17787,47 +17956,47 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="10"/>
@@ -17836,7 +18005,7 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="0"/>
@@ -17885,43 +18054,43 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="9"/>
@@ -17934,7 +18103,7 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="0"/>
@@ -17983,43 +18152,43 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48">
-        <v>-24</v>
+        <v>-23</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="9"/>
@@ -18032,7 +18201,7 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="0"/>
@@ -18079,7 +18248,59 @@
         <v>24</v>
       </c>
     </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>-25</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:M3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -18092,7 +18313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09DDC9F-7735-4EE3-819B-0BBD93AF3A1F}">
   <dimension ref="A5:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
@@ -18140,7 +18361,6 @@
       <c r="B6">
         <v>40</v>
       </c>
-      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -18149,7 +18369,6 @@
       <c r="B7">
         <v>50</v>
       </c>
-      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -18158,13 +18377,12 @@
       <c r="B8">
         <v>60</v>
       </c>
-      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>30</v>
       </c>
     </row>
@@ -18172,7 +18390,7 @@
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>50</v>
       </c>
     </row>
@@ -18180,7 +18398,6 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="C11" s="5"/>
       <c r="D11">
         <v>75</v>
       </c>
@@ -18189,7 +18406,6 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="C12" s="5"/>
       <c r="D12">
         <v>90</v>
       </c>
@@ -18198,7 +18414,6 @@
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="C13" s="5"/>
       <c r="D13">
         <v>120</v>
       </c>
@@ -18207,7 +18422,6 @@
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="C14" s="5"/>
       <c r="F14">
         <v>130</v>
       </c>
@@ -18216,7 +18430,6 @@
       <c r="A15">
         <v>9</v>
       </c>
-      <c r="C15" s="5"/>
       <c r="E15">
         <v>250</v>
       </c>
@@ -18225,7 +18438,6 @@
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="C16" s="5"/>
       <c r="E16">
         <v>250</v>
       </c>
@@ -18234,7 +18446,6 @@
       <c r="A17">
         <v>11</v>
       </c>
-      <c r="C17" s="5"/>
       <c r="E17">
         <v>180</v>
       </c>
@@ -18243,7 +18454,6 @@
       <c r="A18">
         <v>12</v>
       </c>
-      <c r="C18" s="5"/>
       <c r="F18">
         <v>140</v>
       </c>
@@ -18252,7 +18462,6 @@
       <c r="A19">
         <v>13</v>
       </c>
-      <c r="C19" s="5"/>
       <c r="G19">
         <v>140</v>
       </c>
@@ -18261,7 +18470,6 @@
       <c r="A20">
         <v>14</v>
       </c>
-      <c r="C20" s="5"/>
       <c r="G20">
         <v>190</v>
       </c>
@@ -18270,7 +18478,6 @@
       <c r="A21">
         <v>15</v>
       </c>
-      <c r="C21" s="5"/>
       <c r="G21">
         <v>220</v>
       </c>
@@ -18279,7 +18486,6 @@
       <c r="A22">
         <v>16</v>
       </c>
-      <c r="C22" s="5"/>
       <c r="I22">
         <v>280</v>
       </c>
@@ -18288,7 +18494,6 @@
       <c r="A23">
         <v>17</v>
       </c>
-      <c r="C23" s="5"/>
       <c r="H23">
         <v>300</v>
       </c>
@@ -18297,7 +18502,6 @@
       <c r="A24">
         <v>18</v>
       </c>
-      <c r="C24" s="5"/>
       <c r="H24">
         <v>300</v>
       </c>
@@ -18306,7 +18510,6 @@
       <c r="A25">
         <v>19</v>
       </c>
-      <c r="C25" s="5"/>
       <c r="H25">
         <v>300</v>
       </c>
@@ -18315,7 +18518,6 @@
       <c r="A26">
         <v>20</v>
       </c>
-      <c r="C26" s="5"/>
       <c r="J26">
         <v>250</v>
       </c>
@@ -18324,7 +18526,6 @@
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="C27" s="5"/>
       <c r="J27">
         <v>200</v>
       </c>
@@ -18333,7 +18534,6 @@
       <c r="A28">
         <v>22</v>
       </c>
-      <c r="C28" s="5"/>
       <c r="J28">
         <v>100</v>
       </c>
@@ -18342,7 +18542,6 @@
       <c r="A29">
         <v>23</v>
       </c>
-      <c r="C29" s="5"/>
       <c r="I29">
         <v>80</v>
       </c>

--- a/files/HeatingCurveGraph.xlsx
+++ b/files/HeatingCurveGraph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/322f8d75bd36db00/Räägu 17a/Home IoT/Smart energy price for Shelly/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="418" documentId="8_{B9B855E9-B6F4-4BE5-BE0F-7BC5CB42E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E3052A9-EC69-48EF-B6EA-4422C649474C}"/>
+  <xr:revisionPtr revIDLastSave="428" documentId="8_{B9B855E9-B6F4-4BE5-BE0F-7BC5CB42E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26DBFF06-2E39-4A5C-82AD-EED6C05BC3E8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{E44A6528-8152-4E24-BDB0-FDF95A825279}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{E44A6528-8152-4E24-BDB0-FDF95A825279}"/>
   </bookViews>
   <sheets>
     <sheet name="heating time 12h" sheetId="5" r:id="rId1"/>
@@ -251,20 +251,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
@@ -273,6 +273,9 @@
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -293,9 +296,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -408,11 +408,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="et-EE"/>
-              <a:t>Heating</a:t>
+              <a:t>12h Period Heating</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="et-EE" baseline="0"/>
-              <a:t> time vs outside temperature</a:t>
+              <a:t> Time vs Outside Temperature</a:t>
             </a:r>
             <a:endParaRPr lang="et-EE"/>
           </a:p>
@@ -4434,11 +4434,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="et-EE"/>
-              <a:t>Heating</a:t>
+              <a:t>24h Period Heating</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="et-EE" baseline="0"/>
-              <a:t> time vs outside temperature</a:t>
+              <a:t> Time vs Outside Temperature</a:t>
             </a:r>
             <a:endParaRPr lang="et-EE"/>
           </a:p>
@@ -7078,16 +7078,16 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7395,28 +7395,28 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7712,40 +7712,40 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8029,52 +8029,52 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8232,7 +8232,8 @@
         <c:axId val="1253415888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25"/>
+          <c:max val="22"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -13243,38 +13244,38 @@
   </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{B7B388A6-489F-4CE2-8F22-CDB14832CA54}" name="Temperature"/>
-    <tableColumn id="8" xr3:uid="{CAEFA3D2-1D87-4597-88DA-F746A96B046C}" name="-10" dataDxfId="17">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{CAEFA3D2-1D87-4597-88DA-F746A96B046C}" name="-10" dataDxfId="0">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3603CADA-C595-4E14-914A-B3631A006528}" name="-8" dataDxfId="16">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{3603CADA-C595-4E14-914A-B3631A006528}" name="-8" dataDxfId="17">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{57991CAD-77E9-459F-A555-72C060D0D8CA}" name="-6" dataDxfId="15">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{57991CAD-77E9-459F-A555-72C060D0D8CA}" name="-6" dataDxfId="16">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{622DEF2D-5125-455A-B61A-BDC6E16ECD77}" name="-4" dataDxfId="14">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{622DEF2D-5125-455A-B61A-BDC6E16ECD77}" name="-4" dataDxfId="15">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{96F2584A-4BBA-4834-99EC-BA4089091FE8}" name="-2" dataDxfId="13">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{96F2584A-4BBA-4834-99EC-BA4089091FE8}" name="-2" dataDxfId="14">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C6BED476-737A-40E9-BAFB-AE17F070AF18}" name="0" dataDxfId="12">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{C6BED476-737A-40E9-BAFB-AE17F070AF18}" name="0" dataDxfId="13">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B7D6ECFC-B157-4A63-B156-4AC7645E5FB8}" name="2" dataDxfId="11">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{B7D6ECFC-B157-4A63-B156-4AC7645E5FB8}" name="2" dataDxfId="12">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{41297140-EA8B-448E-A57E-B614CDBB967B}" name="4" dataDxfId="10">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{41297140-EA8B-448E-A57E-B614CDBB967B}" name="4" dataDxfId="11">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DF04E4BD-43FE-4AA0-9DF7-3D1C6802F7D2}" name="6" dataDxfId="9">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{DF04E4BD-43FE-4AA0-9DF7-3D1C6802F7D2}" name="6" dataDxfId="10">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EAFEC712-E0FF-4C40-A7FA-B16719B0BECE}" name="8" dataDxfId="8">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{EAFEC712-E0FF-4C40-A7FA-B16719B0BECE}" name="8" dataDxfId="9">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6B4462E9-D16A-4100-BE49-B199D8FBF199}" name="10" dataDxfId="7">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{6B4462E9-D16A-4100-BE49-B199D8FBF199}" name="10" dataDxfId="8">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2,0)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13287,14 +13288,14 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{3B10AF68-AC1F-4874-9651-C0DFD1A59184}" name="Hour"/>
     <tableColumn id="3" xr3:uid="{FD865039-C3F5-4FE9-B560-E1543C060AAC}" name="Energy price"/>
-    <tableColumn id="2" xr3:uid="{2EB992A7-20D5-45FA-B97A-88F841869478}" name="7" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{BD5533B0-A61C-4AC8-9C45-20095FBF7486}" name="2" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{EA176B3A-735E-4253-8EDA-2856ECD9E9E8}" name="3" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2EB992A7-20D5-45FA-B97A-88F841869478}" name="7" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{BD5533B0-A61C-4AC8-9C45-20095FBF7486}" name="2" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{EA176B3A-735E-4253-8EDA-2856ECD9E9E8}" name="3" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{380D7D2E-4CF2-40EB-AA29-A607E19A9635}" name="32"/>
-    <tableColumn id="6" xr3:uid="{6A3E2CCC-4E9B-4FD1-ADC2-58544F9911A8}" name="4" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{EDBA40F9-632A-4948-9EF1-8F51E8F78182}" name="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{6A3E2CCC-4E9B-4FD1-ADC2-58544F9911A8}" name="4" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{EDBA40F9-632A-4948-9EF1-8F51E8F78182}" name="5" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{41ECF26E-65DE-410B-ADB9-7647AD3A39CC}" name="52"/>
-    <tableColumn id="8" xr3:uid="{FE76B63B-F82F-4912-803A-EFD617B54C27}" name="6" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{FE76B63B-F82F-4912-803A-EFD617B54C27}" name="6" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13306,7 +13307,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{50207E7B-91C6-4BB9-83A3-D13240EF0D1C}" name="Hour"/>
     <tableColumn id="3" xr3:uid="{0B03D944-737C-481C-93B9-B87F8FFD1802}" name="Energy price"/>
-    <tableColumn id="4" xr3:uid="{1443F733-B77B-485F-81CF-6314AA8458BA}" name="2" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{1443F733-B77B-485F-81CF-6314AA8458BA}" name="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13611,8 +13612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477A72E7-004E-41B7-B568-B8550F918A98}">
   <dimension ref="B1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13640,55 +13641,55 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -15962,8 +15963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1BB5FD-B445-4B3D-9C53-86CBCF6A0649}">
   <dimension ref="B1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15991,55 +15992,55 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -16048,47 +16049,47 @@
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C50" si="0">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2,0)))</f>
+        <f t="shared" ref="C5:M50" si="0">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2,0)))</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D50" si="1">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E50" si="2">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F50" si="3">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G50" si="4">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H50" si="5">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I50" si="6">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J50" si="7">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K50" si="8">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L50" si="9">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" ref="M5:M50" si="10">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&gt;24,24,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -16101,43 +16102,43 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -16150,43 +16151,43 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -16199,43 +16200,43 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -16248,43 +16249,43 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -16297,43 +16298,43 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -16346,43 +16347,43 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -16395,43 +16396,43 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -16444,43 +16445,43 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -16493,43 +16494,43 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -16542,43 +16543,43 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -16591,43 +16592,43 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -16640,43 +16641,43 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -16689,43 +16690,43 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -16738,43 +16739,43 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -16783,7 +16784,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C20:M50" si="1">IF((($C$2-$B20)*($C$1-1)+$C$2-$B20+C$4-2)&gt;20,20,IF(OR((($C$2-$B20)*($C$1-1)+$C$2-$B20+C$4-2)&lt;0,$B20&gt;$C$2),0,ROUNDDOWN(($C$2-$B20)*($C$1-1)+$C$2-$B20+C$4-2,0)))</f>
         <v>0</v>
       </c>
       <c r="D20" s="1">
@@ -16791,39 +16792,39 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -16832,7 +16833,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D21" s="1">
@@ -16840,39 +16841,39 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -16881,7 +16882,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D22" s="1">
@@ -16889,39 +16890,39 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -16930,7 +16931,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D23" s="1">
@@ -16938,39 +16939,39 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -16979,7 +16980,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D24" s="1">
@@ -16987,39 +16988,39 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -17028,7 +17029,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D25" s="1">
@@ -17036,39 +17037,39 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -17077,7 +17078,7 @@
         <v>-1</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D26" s="1">
@@ -17085,39 +17086,39 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -17126,7 +17127,7 @@
         <v>-2</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D27" s="1">
@@ -17134,39 +17135,39 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -17175,7 +17176,7 @@
         <v>-3</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D28" s="1">
@@ -17183,39 +17184,39 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -17224,7 +17225,7 @@
         <v>-4</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D29" s="1">
@@ -17232,39 +17233,39 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -17273,7 +17274,7 @@
         <v>-5</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D30" s="1">
@@ -17281,39 +17282,39 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -17322,7 +17323,7 @@
         <v>-6</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D31" s="1">
@@ -17330,39 +17331,39 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -17371,7 +17372,7 @@
         <v>-7</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D32" s="1">
@@ -17379,39 +17380,39 @@
         <v>1</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -17420,7 +17421,7 @@
         <v>-8</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D33" s="1">
@@ -17428,39 +17429,39 @@
         <v>2</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -17469,7 +17470,7 @@
         <v>-9</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D34" s="1">
@@ -17477,39 +17478,39 @@
         <v>2</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -17518,7 +17519,7 @@
         <v>-10</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D35" s="1">
@@ -17526,40 +17527,40 @@
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
@@ -17567,7 +17568,7 @@
         <v>-11</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D36" s="1">
@@ -17575,40 +17576,40 @@
         <v>3</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
@@ -17616,7 +17617,7 @@
         <v>-12</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D37" s="1">
@@ -17624,40 +17625,40 @@
         <v>4</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="10"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
@@ -17665,7 +17666,7 @@
         <v>-13</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D38" s="1">
@@ -17673,40 +17674,40 @@
         <v>4</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="10"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
@@ -17714,7 +17715,7 @@
         <v>-14</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D39" s="1">
@@ -17722,40 +17723,40 @@
         <v>5</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="10"/>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
@@ -17763,7 +17764,7 @@
         <v>-15</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D40" s="1">
@@ -17771,40 +17772,40 @@
         <v>5</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="10"/>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
@@ -17812,7 +17813,7 @@
         <v>-16</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D41" s="1">
@@ -17820,40 +17821,40 @@
         <v>6</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="9"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
@@ -17861,7 +17862,7 @@
         <v>-17</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D42" s="1">
@@ -17869,40 +17870,40 @@
         <v>6</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="9"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
@@ -17910,7 +17911,7 @@
         <v>-18</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D43" s="1">
@@ -17918,40 +17919,40 @@
         <v>7</v>
       </c>
       <c r="E43" s="1">
+        <f t="shared" ref="C43:M50" si="2">IF((($C$2-$B43)*($C$1-1)+$C$2-$B43+E$4-2)&gt;20,20,IF(OR((($C$2-$B43)*($C$1-1)+$C$2-$B43+E$4-2)&lt;0,$B43&gt;$C$2),0,ROUNDDOWN(($C$2-$B43)*($C$1-1)+$C$2-$B43+E$4-2,0)))</f>
+        <v>9</v>
+      </c>
+      <c r="F43" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="8"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="9"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
@@ -17959,11 +17960,11 @@
         <v>-19</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E44" s="1">
@@ -17971,36 +17972,36 @@
         <v>9</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="8"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="9"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.35">
@@ -18008,11 +18009,11 @@
         <v>-20</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E45" s="1">
@@ -18020,36 +18021,36 @@
         <v>10</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="8"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.35">
@@ -18057,11 +18058,11 @@
         <v>-21</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E46" s="1">
@@ -18069,36 +18070,36 @@
         <v>10</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="8"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.35">
@@ -18106,11 +18107,11 @@
         <v>-22</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E47" s="1">
@@ -18118,36 +18119,36 @@
         <v>11</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="8"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.35">
@@ -18155,11 +18156,11 @@
         <v>-23</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E48" s="1">
@@ -18167,36 +18168,36 @@
         <v>11</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="8"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.35">
@@ -18204,11 +18205,11 @@
         <v>-24</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E49" s="1">
@@ -18216,36 +18217,36 @@
         <v>12</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="8"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.35">
@@ -18253,11 +18254,11 @@
         <v>-25</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E50" s="1">
@@ -18265,36 +18266,36 @@
         <v>12</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="8"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/files/HeatingCurveGraph.xlsx
+++ b/files/HeatingCurveGraph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/322f8d75bd36db00/Räägu 17a/Home IoT/Smart energy price for Shelly/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="428" documentId="8_{B9B855E9-B6F4-4BE5-BE0F-7BC5CB42E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26DBFF06-2E39-4A5C-82AD-EED6C05BC3E8}"/>
+  <xr:revisionPtr revIDLastSave="448" documentId="8_{B9B855E9-B6F4-4BE5-BE0F-7BC5CB42E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C113563C-4A7E-4AF6-8CDC-C265AED8F59E}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{E44A6528-8152-4E24-BDB0-FDF95A825279}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{E44A6528-8152-4E24-BDB0-FDF95A825279}"/>
   </bookViews>
   <sheets>
     <sheet name="heating time 12h" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>2</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>Power factor</t>
@@ -71,9 +68,6 @@
     <t>Hour</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -81,15 +75,6 @@
   </si>
   <si>
     <t>-4</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>-10</t>
   </si>
   <si>
     <t>Temperature</t>
@@ -108,6 +93,18 @@
   </si>
   <si>
     <t>12h Heating Curve</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-5</t>
   </si>
 </sst>
 </file>
@@ -244,7 +241,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -252,7 +249,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,7 +273,7 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -298,7 +294,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -443,7 +439,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="et-EE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -462,7 +458,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -789,7 +785,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-8</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1116,7 +1112,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-6</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1443,7 +1439,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-4</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1770,7 +1766,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-2</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2424,7 +2420,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2753,7 +2749,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3082,7 +3078,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3411,7 +3407,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3740,7 +3736,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4469,7 +4465,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="et-EE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4488,7 +4484,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4815,7 +4811,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-8</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5142,7 +5138,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-6</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5469,7 +5465,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-4</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5796,7 +5792,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-2</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6450,7 +6446,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6779,7 +6775,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7108,7 +7104,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7437,7 +7433,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7766,7 +7762,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10065,7 +10061,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="et-EE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13188,38 +13184,38 @@
   </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{65D44D9F-FF13-4DD2-B2BA-7DBD9EF8F4AE}" name="Temperature"/>
-    <tableColumn id="8" xr3:uid="{FA866A52-1F0A-4DE1-95DB-F60CCE0C1A4C}" name="-10" dataDxfId="28">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2,0)/2))</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{FA866A52-1F0A-4DE1-95DB-F60CCE0C1A4C}" name="-5" dataDxfId="1">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4*2-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4*2-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1252A914-7586-44E9-9AF7-B121C464D68A}" name="-8" dataDxfId="27">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2,0)/2))</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{1252A914-7586-44E9-9AF7-B121C464D68A}" name="-4" dataDxfId="28">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4*2-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4*2-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{28BE90FC-4C42-4A3F-9DFA-E8178C4162D0}" name="-6" dataDxfId="26">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2,0)/2))</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{28BE90FC-4C42-4A3F-9DFA-E8178C4162D0}" name="-3" dataDxfId="27">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4*2-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4*2-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5C394BCA-E79A-4498-8BCE-D731A17F3F71}" name="-4" dataDxfId="25">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2,0)/2))</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{5C394BCA-E79A-4498-8BCE-D731A17F3F71}" name="-2" dataDxfId="26">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4*2-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4*2-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{728A04EA-7C15-4D3E-88EF-D296633E3C26}" name="-2" dataDxfId="24">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2,0)/2))</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{728A04EA-7C15-4D3E-88EF-D296633E3C26}" name="-1" dataDxfId="25">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4*2-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4*2-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9233041D-99F2-4D67-A588-E3D84B4FB4B9}" name="0" dataDxfId="23">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2,0)/2))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{9233041D-99F2-4D67-A588-E3D84B4FB4B9}" name="0" dataDxfId="24">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4*2-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4*2-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A95678ED-7F77-473B-B3E0-678B99210356}" name="2" dataDxfId="22">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2,0)/2))</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{A95678ED-7F77-473B-B3E0-678B99210356}" name="1" dataDxfId="23">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4*2-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4*2-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DD0B8DB9-2906-47F7-9F0C-D079244D5AC4}" name="4" dataDxfId="21">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2,0)/2))</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{DD0B8DB9-2906-47F7-9F0C-D079244D5AC4}" name="2" dataDxfId="22">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4*2-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4*2-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DAAFA0C3-D7AD-40D3-B2DE-1C14E6400F0F}" name="6" dataDxfId="20">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2,0)/2))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{DAAFA0C3-D7AD-40D3-B2DE-1C14E6400F0F}" name="3" dataDxfId="21">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4*2-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4*2-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F593ECA7-A39E-4F49-B868-95E745B37E99}" name="8" dataDxfId="19">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2,0)/2))</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{F593ECA7-A39E-4F49-B868-95E745B37E99}" name="4" dataDxfId="20">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4*2-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4*2-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0902020A-9F51-4944-ABDC-B7878811E9C7}" name="10" dataDxfId="18">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2,0)/2))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{0902020A-9F51-4944-ABDC-B7878811E9C7}" name="5" dataDxfId="19">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4*2-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4*2-2,0)/2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13244,38 +13240,38 @@
   </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{B7B388A6-489F-4CE2-8F22-CDB14832CA54}" name="Temperature"/>
-    <tableColumn id="8" xr3:uid="{CAEFA3D2-1D87-4597-88DA-F746A96B046C}" name="-10" dataDxfId="0">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{CAEFA3D2-1D87-4597-88DA-F746A96B046C}" name="-5" dataDxfId="0">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4*2-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4*2-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3603CADA-C595-4E14-914A-B3631A006528}" name="-8" dataDxfId="17">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{3603CADA-C595-4E14-914A-B3631A006528}" name="-4" dataDxfId="18">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4*2-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4*2-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{57991CAD-77E9-459F-A555-72C060D0D8CA}" name="-6" dataDxfId="16">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{57991CAD-77E9-459F-A555-72C060D0D8CA}" name="-3" dataDxfId="17">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4*2-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4*2-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{622DEF2D-5125-455A-B61A-BDC6E16ECD77}" name="-4" dataDxfId="15">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{622DEF2D-5125-455A-B61A-BDC6E16ECD77}" name="-2" dataDxfId="16">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4*2-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4*2-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{96F2584A-4BBA-4834-99EC-BA4089091FE8}" name="-2" dataDxfId="14">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{96F2584A-4BBA-4834-99EC-BA4089091FE8}" name="-1" dataDxfId="15">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4*2-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4*2-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C6BED476-737A-40E9-BAFB-AE17F070AF18}" name="0" dataDxfId="13">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{C6BED476-737A-40E9-BAFB-AE17F070AF18}" name="0" dataDxfId="14">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4*2-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4*2-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B7D6ECFC-B157-4A63-B156-4AC7645E5FB8}" name="2" dataDxfId="12">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{B7D6ECFC-B157-4A63-B156-4AC7645E5FB8}" name="1" dataDxfId="13">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4*2-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4*2-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{41297140-EA8B-448E-A57E-B614CDBB967B}" name="4" dataDxfId="11">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{41297140-EA8B-448E-A57E-B614CDBB967B}" name="2" dataDxfId="12">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4*2-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4*2-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DF04E4BD-43FE-4AA0-9DF7-3D1C6802F7D2}" name="6" dataDxfId="10">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{DF04E4BD-43FE-4AA0-9DF7-3D1C6802F7D2}" name="3" dataDxfId="11">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4*2-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4*2-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EAFEC712-E0FF-4C40-A7FA-B16719B0BECE}" name="8" dataDxfId="9">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{EAFEC712-E0FF-4C40-A7FA-B16719B0BECE}" name="4" dataDxfId="10">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4*2-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4*2-2,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6B4462E9-D16A-4100-BE49-B199D8FBF199}" name="10" dataDxfId="8">
-      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2,0)))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{6B4462E9-D16A-4100-BE49-B199D8FBF199}" name="5" dataDxfId="9">
+      <calculatedColumnFormula>IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4*2-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4*2-2,0)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13288,14 +13284,14 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{3B10AF68-AC1F-4874-9651-C0DFD1A59184}" name="Hour"/>
     <tableColumn id="3" xr3:uid="{FD865039-C3F5-4FE9-B560-E1543C060AAC}" name="Energy price"/>
-    <tableColumn id="2" xr3:uid="{2EB992A7-20D5-45FA-B97A-88F841869478}" name="7" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{BD5533B0-A61C-4AC8-9C45-20095FBF7486}" name="2" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{EA176B3A-735E-4253-8EDA-2856ECD9E9E8}" name="3" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2EB992A7-20D5-45FA-B97A-88F841869478}" name="7" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{BD5533B0-A61C-4AC8-9C45-20095FBF7486}" name="2" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{EA176B3A-735E-4253-8EDA-2856ECD9E9E8}" name="3" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{380D7D2E-4CF2-40EB-AA29-A607E19A9635}" name="32"/>
-    <tableColumn id="6" xr3:uid="{6A3E2CCC-4E9B-4FD1-ADC2-58544F9911A8}" name="4" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{EDBA40F9-632A-4948-9EF1-8F51E8F78182}" name="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6A3E2CCC-4E9B-4FD1-ADC2-58544F9911A8}" name="4" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{EDBA40F9-632A-4948-9EF1-8F51E8F78182}" name="5" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{41ECF26E-65DE-410B-ADB9-7647AD3A39CC}" name="52"/>
-    <tableColumn id="8" xr3:uid="{FE76B63B-F82F-4912-803A-EFD617B54C27}" name="6" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{FE76B63B-F82F-4912-803A-EFD617B54C27}" name="6" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13307,7 +13303,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{50207E7B-91C6-4BB9-83A3-D13240EF0D1C}" name="Hour"/>
     <tableColumn id="3" xr3:uid="{0B03D944-737C-481C-93B9-B87F8FFD1802}" name="Energy price"/>
-    <tableColumn id="4" xr3:uid="{1443F733-B77B-485F-81CF-6314AA8458BA}" name="2" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1443F733-B77B-485F-81CF-6314AA8458BA}" name="2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13612,8 +13608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477A72E7-004E-41B7-B568-B8550F918A98}">
   <dimension ref="B1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13625,7 +13621,7 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2">
         <v>0.5</v>
@@ -13633,7 +13629,7 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>16</v>
@@ -13641,56 +13637,56 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
-      <c r="C3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>10</v>
+      <c r="M4" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
@@ -13698,47 +13694,47 @@
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C50" si="0">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2,0)/2))</f>
+        <f t="shared" ref="C5:M50" si="0">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4*2-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4*2-2,0)/2))</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D50" si="1">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+D$4-2,0)/2))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E50" si="2">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+E$4-2,0)/2))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F50" si="3">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+F$4-2,0)/2))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G50" si="4">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+G$4-2,0)/2))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H50" si="5">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+H$4-2,0)/2))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I50" si="6">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+I$4-2,0)/2))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J50" si="7">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+J$4-2,0)/2))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K50" si="8">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+K$4-2,0)/2))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L50" si="9">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+L$4-2,0)/2))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" ref="M5:M50" si="10">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)/2&gt;12,12,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+M$4-2,0)/2))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13751,43 +13747,43 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13800,43 +13796,43 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13849,43 +13845,43 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13898,43 +13894,43 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -13947,43 +13943,43 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -13996,43 +13992,43 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
@@ -14045,43 +14041,43 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
@@ -14094,43 +14090,43 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -14143,43 +14139,43 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -14192,43 +14188,43 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
@@ -14241,43 +14237,43 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
@@ -14290,43 +14286,43 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -14339,43 +14335,43 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -14388,43 +14384,43 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
     </row>
@@ -14437,43 +14433,43 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
     </row>
@@ -14486,43 +14482,43 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -14535,43 +14531,43 @@
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -14584,43 +14580,43 @@
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
@@ -14633,43 +14629,43 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
@@ -14682,43 +14678,43 @@
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D25:M40" si="1">IF((($C$2-$B25)*($C$1-1)+$C$2-$B25+M$4*2-2)/2&gt;12,12,IF(OR((($C$2-$B25)*($C$1-1)+$C$2-$B25+M$4*2-2)&lt;0,$B25&gt;$C$2),0,ROUNDDOWN(($C$2-$B25)*($C$1-1)+$C$2-$B25+M$4*2-2,0)/2))</f>
         <v>8</v>
       </c>
     </row>
@@ -14735,39 +14731,39 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -14784,39 +14780,39 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
     </row>
@@ -14833,39 +14829,39 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
     </row>
@@ -14882,39 +14878,39 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -14931,39 +14927,39 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -14980,39 +14976,39 @@
         <v>0.5</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
     </row>
@@ -15029,39 +15025,39 @@
         <v>0.5</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
     </row>
@@ -15078,39 +15074,39 @@
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -15127,39 +15123,39 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -15176,39 +15172,39 @@
         <v>1.5</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
     </row>
@@ -15225,39 +15221,39 @@
         <v>1.5</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
     </row>
@@ -15274,39 +15270,39 @@
         <v>2</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -15323,39 +15319,39 @@
         <v>2</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -15372,39 +15368,39 @@
         <v>2.5</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
     </row>
@@ -15421,39 +15417,39 @@
         <v>2.5</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
     </row>
@@ -15466,7 +15462,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D41:M50" si="2">IF((($C$2-$B41)*($C$1-1)+$C$2-$B41+D$4*2-2)/2&gt;12,12,IF(OR((($C$2-$B41)*($C$1-1)+$C$2-$B41+D$4*2-2)&lt;0,$B41&gt;$C$2),0,ROUNDDOWN(($C$2-$B41)*($C$1-1)+$C$2-$B41+D$4*2-2,0)/2))</f>
         <v>3</v>
       </c>
       <c r="E41" s="1">
@@ -15474,35 +15470,35 @@
         <v>4</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -15515,7 +15511,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E42" s="1">
@@ -15523,35 +15519,35 @@
         <v>4</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -15564,7 +15560,7 @@
         <v>2.5</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="E43" s="1">
@@ -15572,35 +15568,35 @@
         <v>4.5</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -15613,7 +15609,7 @@
         <v>2.5</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="E44" s="1">
@@ -15621,35 +15617,35 @@
         <v>4.5</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -15662,7 +15658,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E45" s="1">
@@ -15670,35 +15666,35 @@
         <v>5</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -15711,7 +15707,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E46" s="1">
@@ -15719,35 +15715,35 @@
         <v>5</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -15760,7 +15756,7 @@
         <v>3.5</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="E47" s="1">
@@ -15768,35 +15764,35 @@
         <v>5.5</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -15809,7 +15805,7 @@
         <v>3.5</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="E48" s="1">
@@ -15817,35 +15813,35 @@
         <v>5.5</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -15858,7 +15854,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E49" s="1">
@@ -15866,35 +15862,35 @@
         <v>6</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -15907,7 +15903,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E50" s="1">
@@ -15915,35 +15911,35 @@
         <v>6</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -15963,8 +15959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1BB5FD-B445-4B3D-9C53-86CBCF6A0649}">
   <dimension ref="B1:M50"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="W42" sqref="W42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15976,7 +15972,7 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2">
         <v>0.5</v>
@@ -15984,7 +15980,7 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>16</v>
@@ -15992,56 +15988,56 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
-      <c r="C3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="M4" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
@@ -16049,7 +16045,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:M50" si="0">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4-2,0)))</f>
+        <f t="shared" ref="C5:M50" si="0">IF((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4*2-2)&gt;20,20,IF(OR((($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4*2-2)&lt;0,$B5&gt;$C$2),0,ROUNDDOWN(($C$2-$B5)*($C$1-1)+$C$2-$B5+C$4*2-2,0)))</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
@@ -16784,47 +16780,47 @@
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ref="C20:M50" si="1">IF((($C$2-$B20)*($C$1-1)+$C$2-$B20+C$4-2)&gt;20,20,IF(OR((($C$2-$B20)*($C$1-1)+$C$2-$B20+C$4-2)&lt;0,$B20&gt;$C$2),0,ROUNDDOWN(($C$2-$B20)*($C$1-1)+$C$2-$B20+C$4-2,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -16833,47 +16829,47 @@
         <v>4</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -16882,47 +16878,47 @@
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -16931,47 +16927,47 @@
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -16980,47 +16976,47 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -17029,47 +17025,47 @@
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D25:M40" si="1">IF((($C$2-$B25)*($C$1-1)+$C$2-$B25+M$4*2-2)&gt;20,20,IF(OR((($C$2-$B25)*($C$1-1)+$C$2-$B25+M$4*2-2)&lt;0,$B25&gt;$C$2),0,ROUNDDOWN(($C$2-$B25)*($C$1-1)+$C$2-$B25+M$4*2-2,0)))</f>
         <v>16</v>
       </c>
     </row>
@@ -17078,7 +17074,7 @@
         <v>-1</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D26" s="1">
@@ -17127,7 +17123,7 @@
         <v>-2</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D27" s="1">
@@ -17176,7 +17172,7 @@
         <v>-3</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D28" s="1">
@@ -17225,7 +17221,7 @@
         <v>-4</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D29" s="1">
@@ -17274,7 +17270,7 @@
         <v>-5</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D30" s="1">
@@ -17323,7 +17319,7 @@
         <v>-6</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D31" s="1">
@@ -17372,7 +17368,7 @@
         <v>-7</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D32" s="1">
@@ -17421,7 +17417,7 @@
         <v>-8</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D33" s="1">
@@ -17470,7 +17466,7 @@
         <v>-9</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D34" s="1">
@@ -17519,7 +17515,7 @@
         <v>-10</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D35" s="1">
@@ -17568,7 +17564,7 @@
         <v>-11</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D36" s="1">
@@ -17617,7 +17613,7 @@
         <v>-12</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D37" s="1">
@@ -17666,7 +17662,7 @@
         <v>-13</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D38" s="1">
@@ -17715,7 +17711,7 @@
         <v>-14</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D39" s="1">
@@ -17764,7 +17760,7 @@
         <v>-15</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D40" s="1">
@@ -17813,47 +17809,47 @@
         <v>-16</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D41:M50" si="2">IF((($C$2-$B41)*($C$1-1)+$C$2-$B41+D$4*2-2)&gt;20,20,IF(OR((($C$2-$B41)*($C$1-1)+$C$2-$B41+D$4*2-2)&lt;0,$B41&gt;$C$2),0,ROUNDDOWN(($C$2-$B41)*($C$1-1)+$C$2-$B41+D$4*2-2,0)))</f>
         <v>6</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -17862,47 +17858,47 @@
         <v>-17</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -17911,15 +17907,15 @@
         <v>-18</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" ref="C43:M50" si="2">IF((($C$2-$B43)*($C$1-1)+$C$2-$B43+E$4-2)&gt;20,20,IF(OR((($C$2-$B43)*($C$1-1)+$C$2-$B43+E$4-2)&lt;0,$B43&gt;$C$2),0,ROUNDDOWN(($C$2-$B43)*($C$1-1)+$C$2-$B43+E$4-2,0)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F43" s="1">
@@ -17960,7 +17956,7 @@
         <v>-19</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D44" s="1">
@@ -18009,7 +18005,7 @@
         <v>-20</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D45" s="1">
@@ -18058,7 +18054,7 @@
         <v>-21</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D46" s="1">
@@ -18107,7 +18103,7 @@
         <v>-22</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D47" s="1">
@@ -18156,7 +18152,7 @@
         <v>-23</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D48" s="1">
@@ -18205,7 +18201,7 @@
         <v>-24</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D49" s="1">
@@ -18254,7 +18250,7 @@
         <v>-25</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D50" s="1">
@@ -18325,31 +18321,31 @@
   <sheetData>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>2</v>
@@ -18572,10 +18568,10 @@
   <sheetData>
     <row r="5" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
